--- a/historical_trades.xlsx
+++ b/historical_trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ABF</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>ABFPP</t>
+  </si>
+  <si>
+    <t>ABFtest</t>
   </si>
   <si>
     <t>Date</t>
@@ -392,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E417"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -414,19 +417,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>42373</v>
       </c>
       <c r="B2">
         <v>3276</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>42374</v>
       </c>
@@ -442,8 +454,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>42375</v>
       </c>
@@ -459,8 +474,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>42376</v>
       </c>
@@ -476,8 +494,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>42377</v>
       </c>
@@ -493,8 +514,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>42380</v>
       </c>
@@ -510,8 +534,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>42381</v>
       </c>
@@ -527,8 +554,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>42382</v>
       </c>
@@ -544,8 +574,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>42383</v>
       </c>
@@ -561,8 +594,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>42384</v>
       </c>
@@ -578,8 +614,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>42387</v>
       </c>
@@ -595,8 +634,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>42388</v>
       </c>
@@ -612,8 +654,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>42389</v>
       </c>
@@ -629,8 +674,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>42390</v>
       </c>
@@ -646,8 +694,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>42391</v>
       </c>
@@ -663,8 +714,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>42394</v>
       </c>
@@ -680,8 +734,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>42395</v>
       </c>
@@ -697,8 +754,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>42396</v>
       </c>
@@ -714,8 +774,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>42397</v>
       </c>
@@ -731,8 +794,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>42398</v>
       </c>
@@ -748,8 +814,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>42401</v>
       </c>
@@ -765,8 +834,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>42402</v>
       </c>
@@ -782,8 +854,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>42403</v>
       </c>
@@ -799,8 +874,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>42404</v>
       </c>
@@ -816,8 +894,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>42405</v>
       </c>
@@ -833,8 +914,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>42408</v>
       </c>
@@ -850,8 +934,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>42409</v>
       </c>
@@ -867,8 +954,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>42410</v>
       </c>
@@ -884,8 +974,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>42411</v>
       </c>
@@ -901,8 +994,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>42412</v>
       </c>
@@ -918,8 +1014,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>42415</v>
       </c>
@@ -935,8 +1034,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>42416</v>
       </c>
@@ -952,8 +1054,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>42417</v>
       </c>
@@ -969,8 +1074,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>42418</v>
       </c>
@@ -986,8 +1094,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>42419</v>
       </c>
@@ -1003,8 +1114,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>42422</v>
       </c>
@@ -1020,8 +1134,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>42423</v>
       </c>
@@ -1037,8 +1154,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>42424</v>
       </c>
@@ -1054,8 +1174,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>42425</v>
       </c>
@@ -1071,8 +1194,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>42426</v>
       </c>
@@ -1088,8 +1214,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>42429</v>
       </c>
@@ -1105,8 +1234,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>42430</v>
       </c>
@@ -1122,8 +1254,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>42431</v>
       </c>
@@ -1139,8 +1274,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>42432</v>
       </c>
@@ -1156,8 +1294,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>42433</v>
       </c>
@@ -1173,8 +1314,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>42436</v>
       </c>
@@ -1190,8 +1334,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>42437</v>
       </c>
@@ -1207,8 +1354,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>42438</v>
       </c>
@@ -1224,8 +1374,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>42439</v>
       </c>
@@ -1241,8 +1394,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>42440</v>
       </c>
@@ -1258,8 +1414,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>42443</v>
       </c>
@@ -1275,8 +1434,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>42444</v>
       </c>
@@ -1292,8 +1454,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>42445</v>
       </c>
@@ -1309,8 +1474,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>42446</v>
       </c>
@@ -1326,8 +1494,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>42447</v>
       </c>
@@ -1343,8 +1514,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>42450</v>
       </c>
@@ -1360,8 +1534,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>42451</v>
       </c>
@@ -1377,8 +1554,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>42452</v>
       </c>
@@ -1394,8 +1574,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>42453</v>
       </c>
@@ -1411,8 +1594,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>42458</v>
       </c>
@@ -1428,8 +1614,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>42459</v>
       </c>
@@ -1445,8 +1634,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>42460</v>
       </c>
@@ -1462,8 +1654,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>42461</v>
       </c>
@@ -1479,8 +1674,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>42464</v>
       </c>
@@ -1496,8 +1694,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>42465</v>
       </c>
@@ -1513,8 +1714,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>42466</v>
       </c>
@@ -1530,8 +1734,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>42467</v>
       </c>
@@ -1547,8 +1754,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>42468</v>
       </c>
@@ -1564,8 +1774,11 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>42471</v>
       </c>
@@ -1581,8 +1794,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>42472</v>
       </c>
@@ -1598,8 +1814,11 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>42473</v>
       </c>
@@ -1615,8 +1834,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>42474</v>
       </c>
@@ -1632,8 +1854,11 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>42475</v>
       </c>
@@ -1649,8 +1874,11 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>42478</v>
       </c>
@@ -1666,8 +1894,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>42479</v>
       </c>
@@ -1683,8 +1914,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>42480</v>
       </c>
@@ -1700,8 +1934,11 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>42481</v>
       </c>
@@ -1717,8 +1954,11 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>42482</v>
       </c>
@@ -1734,8 +1974,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>42485</v>
       </c>
@@ -1751,8 +1994,11 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>42486</v>
       </c>
@@ -1768,8 +2014,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>42487</v>
       </c>
@@ -1785,8 +2034,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>42488</v>
       </c>
@@ -1802,8 +2054,11 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>42489</v>
       </c>
@@ -1819,8 +2074,11 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>42493</v>
       </c>
@@ -1836,8 +2094,11 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>42494</v>
       </c>
@@ -1853,8 +2114,11 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>42495</v>
       </c>
@@ -1870,8 +2134,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>42496</v>
       </c>
@@ -1887,8 +2154,11 @@
       <c r="E88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>42499</v>
       </c>
@@ -1904,8 +2174,11 @@
       <c r="E89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>42500</v>
       </c>
@@ -1921,8 +2194,11 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>42501</v>
       </c>
@@ -1938,8 +2214,11 @@
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>42502</v>
       </c>
@@ -1955,8 +2234,11 @@
       <c r="E92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>42503</v>
       </c>
@@ -1972,8 +2254,11 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>42506</v>
       </c>
@@ -1989,8 +2274,11 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>42507</v>
       </c>
@@ -2006,8 +2294,11 @@
       <c r="E95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>42508</v>
       </c>
@@ -2023,8 +2314,11 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>42509</v>
       </c>
@@ -2040,8 +2334,11 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>42510</v>
       </c>
@@ -2057,8 +2354,11 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>42513</v>
       </c>
@@ -2074,8 +2374,11 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>42514</v>
       </c>
@@ -2091,8 +2394,11 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>42515</v>
       </c>
@@ -2108,8 +2414,11 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>42516</v>
       </c>
@@ -2125,8 +2434,11 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>42517</v>
       </c>
@@ -2142,8 +2454,11 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>42521</v>
       </c>
@@ -2159,8 +2474,11 @@
       <c r="E104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>42522</v>
       </c>
@@ -2176,8 +2494,11 @@
       <c r="E105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>42523</v>
       </c>
@@ -2193,8 +2514,11 @@
       <c r="E106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>42524</v>
       </c>
@@ -2210,8 +2534,11 @@
       <c r="E107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>42527</v>
       </c>
@@ -2227,8 +2554,11 @@
       <c r="E108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>42528</v>
       </c>
@@ -2244,8 +2574,11 @@
       <c r="E109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>42529</v>
       </c>
@@ -2261,8 +2594,11 @@
       <c r="E110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>42530</v>
       </c>
@@ -2278,8 +2614,11 @@
       <c r="E111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>42531</v>
       </c>
@@ -2295,8 +2634,11 @@
       <c r="E112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>42534</v>
       </c>
@@ -2312,8 +2654,11 @@
       <c r="E113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>42535</v>
       </c>
@@ -2329,8 +2674,11 @@
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>42536</v>
       </c>
@@ -2346,8 +2694,11 @@
       <c r="E115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>42537</v>
       </c>
@@ -2363,8 +2714,11 @@
       <c r="E116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>42538</v>
       </c>
@@ -2380,8 +2734,11 @@
       <c r="E117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>42541</v>
       </c>
@@ -2397,8 +2754,11 @@
       <c r="E118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>42542</v>
       </c>
@@ -2414,8 +2774,11 @@
       <c r="E119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>42543</v>
       </c>
@@ -2431,8 +2794,11 @@
       <c r="E120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>42544</v>
       </c>
@@ -2448,8 +2814,11 @@
       <c r="E121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>42545</v>
       </c>
@@ -2465,8 +2834,11 @@
       <c r="E122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>42548</v>
       </c>
@@ -2482,8 +2854,11 @@
       <c r="E123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>42549</v>
       </c>
@@ -2499,8 +2874,11 @@
       <c r="E124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>42550</v>
       </c>
@@ -2516,8 +2894,11 @@
       <c r="E125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>42551</v>
       </c>
@@ -2533,8 +2914,11 @@
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>42552</v>
       </c>
@@ -2550,8 +2934,11 @@
       <c r="E127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>42555</v>
       </c>
@@ -2567,8 +2954,11 @@
       <c r="E128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>42556</v>
       </c>
@@ -2584,8 +2974,11 @@
       <c r="E129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>42557</v>
       </c>
@@ -2601,8 +2994,11 @@
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>42558</v>
       </c>
@@ -2618,8 +3014,11 @@
       <c r="E131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>42559</v>
       </c>
@@ -2635,8 +3034,11 @@
       <c r="E132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>42562</v>
       </c>
@@ -2652,8 +3054,11 @@
       <c r="E133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>42563</v>
       </c>
@@ -2669,8 +3074,11 @@
       <c r="E134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>42564</v>
       </c>
@@ -2686,8 +3094,11 @@
       <c r="E135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>42565</v>
       </c>
@@ -2703,8 +3114,11 @@
       <c r="E136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>42566</v>
       </c>
@@ -2720,8 +3134,11 @@
       <c r="E137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>42569</v>
       </c>
@@ -2737,8 +3154,11 @@
       <c r="E138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>42570</v>
       </c>
@@ -2754,8 +3174,11 @@
       <c r="E139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>42571</v>
       </c>
@@ -2771,8 +3194,11 @@
       <c r="E140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>42572</v>
       </c>
@@ -2788,8 +3214,11 @@
       <c r="E141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>42573</v>
       </c>
@@ -2805,8 +3234,11 @@
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>42576</v>
       </c>
@@ -2822,8 +3254,11 @@
       <c r="E143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>42577</v>
       </c>
@@ -2839,8 +3274,11 @@
       <c r="E144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>42578</v>
       </c>
@@ -2856,8 +3294,11 @@
       <c r="E145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>42579</v>
       </c>
@@ -2873,8 +3314,11 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>42580</v>
       </c>
@@ -2890,8 +3334,11 @@
       <c r="E147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>42583</v>
       </c>
@@ -2907,8 +3354,11 @@
       <c r="E148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>42584</v>
       </c>
@@ -2924,8 +3374,11 @@
       <c r="E149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>42585</v>
       </c>
@@ -2941,8 +3394,11 @@
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>42586</v>
       </c>
@@ -2958,8 +3414,11 @@
       <c r="E151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>42587</v>
       </c>
@@ -2975,8 +3434,11 @@
       <c r="E152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>42590</v>
       </c>
@@ -2992,8 +3454,11 @@
       <c r="E153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>42591</v>
       </c>
@@ -3009,8 +3474,11 @@
       <c r="E154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>42592</v>
       </c>
@@ -3026,8 +3494,11 @@
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>42593</v>
       </c>
@@ -3043,8 +3514,11 @@
       <c r="E156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>42594</v>
       </c>
@@ -3060,8 +3534,11 @@
       <c r="E157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>42597</v>
       </c>
@@ -3077,8 +3554,11 @@
       <c r="E158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>42598</v>
       </c>
@@ -3094,8 +3574,11 @@
       <c r="E159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>42599</v>
       </c>
@@ -3111,8 +3594,11 @@
       <c r="E160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>42600</v>
       </c>
@@ -3128,8 +3614,11 @@
       <c r="E161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>42601</v>
       </c>
@@ -3145,8 +3634,11 @@
       <c r="E162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>42604</v>
       </c>
@@ -3162,8 +3654,11 @@
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>42605</v>
       </c>
@@ -3179,8 +3674,11 @@
       <c r="E164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>42606</v>
       </c>
@@ -3196,8 +3694,11 @@
       <c r="E165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>42607</v>
       </c>
@@ -3213,8 +3714,11 @@
       <c r="E166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>42608</v>
       </c>
@@ -3230,8 +3734,11 @@
       <c r="E167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>42612</v>
       </c>
@@ -3247,8 +3754,11 @@
       <c r="E168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>42613</v>
       </c>
@@ -3264,8 +3774,11 @@
       <c r="E169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>42614</v>
       </c>
@@ -3281,8 +3794,11 @@
       <c r="E170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>42615</v>
       </c>
@@ -3298,8 +3814,11 @@
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>42618</v>
       </c>
@@ -3315,8 +3834,11 @@
       <c r="E172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>42619</v>
       </c>
@@ -3332,8 +3854,11 @@
       <c r="E173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>42620</v>
       </c>
@@ -3349,8 +3874,11 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>42621</v>
       </c>
@@ -3366,8 +3894,11 @@
       <c r="E175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>42622</v>
       </c>
@@ -3383,8 +3914,11 @@
       <c r="E176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>42625</v>
       </c>
@@ -3400,8 +3934,11 @@
       <c r="E177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>42626</v>
       </c>
@@ -3417,8 +3954,11 @@
       <c r="E178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>42627</v>
       </c>
@@ -3434,8 +3974,11 @@
       <c r="E179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>42628</v>
       </c>
@@ -3451,8 +3994,11 @@
       <c r="E180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>42629</v>
       </c>
@@ -3468,8 +4014,11 @@
       <c r="E181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>42632</v>
       </c>
@@ -3485,8 +4034,11 @@
       <c r="E182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>42633</v>
       </c>
@@ -3502,8 +4054,11 @@
       <c r="E183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>42634</v>
       </c>
@@ -3519,8 +4074,11 @@
       <c r="E184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>42635</v>
       </c>
@@ -3536,8 +4094,11 @@
       <c r="E185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>42636</v>
       </c>
@@ -3553,8 +4114,11 @@
       <c r="E186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>42639</v>
       </c>
@@ -3570,8 +4134,11 @@
       <c r="E187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>42640</v>
       </c>
@@ -3587,8 +4154,11 @@
       <c r="E188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>42641</v>
       </c>
@@ -3604,8 +4174,11 @@
       <c r="E189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>42642</v>
       </c>
@@ -3621,8 +4194,11 @@
       <c r="E190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>42643</v>
       </c>
@@ -3638,8 +4214,11 @@
       <c r="E191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>42646</v>
       </c>
@@ -3655,8 +4234,11 @@
       <c r="E192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>42647</v>
       </c>
@@ -3672,8 +4254,11 @@
       <c r="E193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>42648</v>
       </c>
@@ -3689,8 +4274,11 @@
       <c r="E194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>42649</v>
       </c>
@@ -3706,8 +4294,11 @@
       <c r="E195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>42650</v>
       </c>
@@ -3723,8 +4314,11 @@
       <c r="E196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>42653</v>
       </c>
@@ -3740,8 +4334,11 @@
       <c r="E197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>42654</v>
       </c>
@@ -3757,8 +4354,11 @@
       <c r="E198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>42655</v>
       </c>
@@ -3774,8 +4374,11 @@
       <c r="E199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>42656</v>
       </c>
@@ -3791,8 +4394,11 @@
       <c r="E200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>42657</v>
       </c>
@@ -3808,8 +4414,11 @@
       <c r="E201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>42660</v>
       </c>
@@ -3825,8 +4434,11 @@
       <c r="E202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>42661</v>
       </c>
@@ -3842,8 +4454,11 @@
       <c r="E203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>42662</v>
       </c>
@@ -3859,8 +4474,11 @@
       <c r="E204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>42663</v>
       </c>
@@ -3876,8 +4494,11 @@
       <c r="E205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>42664</v>
       </c>
@@ -3893,8 +4514,11 @@
       <c r="E206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>42667</v>
       </c>
@@ -3910,8 +4534,11 @@
       <c r="E207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>42668</v>
       </c>
@@ -3927,8 +4554,11 @@
       <c r="E208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>42669</v>
       </c>
@@ -3944,8 +4574,11 @@
       <c r="E209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>42670</v>
       </c>
@@ -3961,8 +4594,11 @@
       <c r="E210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>42671</v>
       </c>
@@ -3978,8 +4614,11 @@
       <c r="E211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>42674</v>
       </c>
@@ -3995,8 +4634,11 @@
       <c r="E212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>42675</v>
       </c>
@@ -4012,8 +4654,11 @@
       <c r="E213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>42676</v>
       </c>
@@ -4029,8 +4674,11 @@
       <c r="E214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>42677</v>
       </c>
@@ -4046,8 +4694,11 @@
       <c r="E215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>42678</v>
       </c>
@@ -4063,8 +4714,11 @@
       <c r="E216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>42681</v>
       </c>
@@ -4080,8 +4734,11 @@
       <c r="E217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>42682</v>
       </c>
@@ -4097,8 +4754,11 @@
       <c r="E218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>42683</v>
       </c>
@@ -4114,8 +4774,11 @@
       <c r="E219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>42684</v>
       </c>
@@ -4131,8 +4794,11 @@
       <c r="E220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>42685</v>
       </c>
@@ -4148,8 +4814,11 @@
       <c r="E221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>42688</v>
       </c>
@@ -4165,8 +4834,11 @@
       <c r="E222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>42689</v>
       </c>
@@ -4182,8 +4854,11 @@
       <c r="E223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>42690</v>
       </c>
@@ -4199,8 +4874,11 @@
       <c r="E224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>42691</v>
       </c>
@@ -4216,8 +4894,11 @@
       <c r="E225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>42692</v>
       </c>
@@ -4233,8 +4914,11 @@
       <c r="E226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>42695</v>
       </c>
@@ -4250,8 +4934,11 @@
       <c r="E227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="2">
         <v>42696</v>
       </c>
@@ -4267,8 +4954,11 @@
       <c r="E228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="2">
         <v>42697</v>
       </c>
@@ -4284,8 +4974,11 @@
       <c r="E229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="2">
         <v>42698</v>
       </c>
@@ -4301,8 +4994,11 @@
       <c r="E230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="2">
         <v>42699</v>
       </c>
@@ -4318,8 +5014,11 @@
       <c r="E231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="2">
         <v>42702</v>
       </c>
@@ -4335,8 +5034,11 @@
       <c r="E232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="2">
         <v>42703</v>
       </c>
@@ -4352,8 +5054,11 @@
       <c r="E233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="2">
         <v>42704</v>
       </c>
@@ -4369,8 +5074,11 @@
       <c r="E234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="2">
         <v>42705</v>
       </c>
@@ -4386,8 +5094,11 @@
       <c r="E235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="2">
         <v>42706</v>
       </c>
@@ -4403,8 +5114,11 @@
       <c r="E236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="2">
         <v>42709</v>
       </c>
@@ -4420,8 +5134,11 @@
       <c r="E237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="2">
         <v>42710</v>
       </c>
@@ -4437,8 +5154,11 @@
       <c r="E238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="2">
         <v>42711</v>
       </c>
@@ -4454,8 +5174,11 @@
       <c r="E239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>42712</v>
       </c>
@@ -4471,8 +5194,11 @@
       <c r="E240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="2">
         <v>42713</v>
       </c>
@@ -4488,8 +5214,11 @@
       <c r="E241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="2">
         <v>42716</v>
       </c>
@@ -4505,8 +5234,11 @@
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="2">
         <v>42717</v>
       </c>
@@ -4522,8 +5254,11 @@
       <c r="E243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="2">
         <v>42718</v>
       </c>
@@ -4539,8 +5274,11 @@
       <c r="E244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="2">
         <v>42719</v>
       </c>
@@ -4556,8 +5294,11 @@
       <c r="E245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="2">
         <v>42720</v>
       </c>
@@ -4573,8 +5314,11 @@
       <c r="E246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="2">
         <v>42723</v>
       </c>
@@ -4590,8 +5334,11 @@
       <c r="E247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="2">
         <v>42724</v>
       </c>
@@ -4607,8 +5354,11 @@
       <c r="E248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="2">
         <v>42725</v>
       </c>
@@ -4624,8 +5374,11 @@
       <c r="E249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="2">
         <v>42726</v>
       </c>
@@ -4641,8 +5394,11 @@
       <c r="E250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="2">
         <v>42727</v>
       </c>
@@ -4658,8 +5414,11 @@
       <c r="E251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="2">
         <v>42732</v>
       </c>
@@ -4675,8 +5434,11 @@
       <c r="E252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="2">
         <v>42733</v>
       </c>
@@ -4692,8 +5454,11 @@
       <c r="E253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="2">
         <v>42734</v>
       </c>
@@ -4709,8 +5474,11 @@
       <c r="E254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="2">
         <v>42738</v>
       </c>
@@ -4726,8 +5494,11 @@
       <c r="E255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="2">
         <v>42739</v>
       </c>
@@ -4743,8 +5514,11 @@
       <c r="E256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="2">
         <v>42740</v>
       </c>
@@ -4760,8 +5534,11 @@
       <c r="E257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="2">
         <v>42741</v>
       </c>
@@ -4777,8 +5554,11 @@
       <c r="E258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="2">
         <v>42744</v>
       </c>
@@ -4794,8 +5574,11 @@
       <c r="E259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="2">
         <v>42745</v>
       </c>
@@ -4811,8 +5594,11 @@
       <c r="E260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="2">
         <v>42746</v>
       </c>
@@ -4828,8 +5614,11 @@
       <c r="E261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="2">
         <v>42747</v>
       </c>
@@ -4845,8 +5634,11 @@
       <c r="E262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="2">
         <v>42748</v>
       </c>
@@ -4862,8 +5654,11 @@
       <c r="E263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="2">
         <v>42751</v>
       </c>
@@ -4879,8 +5674,11 @@
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="2">
         <v>42752</v>
       </c>
@@ -4896,8 +5694,11 @@
       <c r="E265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="2">
         <v>42753</v>
       </c>
@@ -4913,8 +5714,11 @@
       <c r="E266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="2">
         <v>42754</v>
       </c>
@@ -4930,8 +5734,11 @@
       <c r="E267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="2">
         <v>42755</v>
       </c>
@@ -4947,8 +5754,11 @@
       <c r="E268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="2">
         <v>42758</v>
       </c>
@@ -4964,8 +5774,11 @@
       <c r="E269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="2">
         <v>42759</v>
       </c>
@@ -4981,8 +5794,11 @@
       <c r="E270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="2">
         <v>42760</v>
       </c>
@@ -4998,8 +5814,11 @@
       <c r="E271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="2">
         <v>42761</v>
       </c>
@@ -5015,8 +5834,11 @@
       <c r="E272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="2">
         <v>42762</v>
       </c>
@@ -5032,8 +5854,11 @@
       <c r="E273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="2">
         <v>42765</v>
       </c>
@@ -5049,8 +5874,11 @@
       <c r="E274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="2">
         <v>42766</v>
       </c>
@@ -5066,8 +5894,11 @@
       <c r="E275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="2">
         <v>42767</v>
       </c>
@@ -5083,8 +5914,11 @@
       <c r="E276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="2">
         <v>42768</v>
       </c>
@@ -5100,8 +5934,11 @@
       <c r="E277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="2">
         <v>42769</v>
       </c>
@@ -5117,8 +5954,11 @@
       <c r="E278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="2">
         <v>42772</v>
       </c>
@@ -5134,8 +5974,11 @@
       <c r="E279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="2">
         <v>42773</v>
       </c>
@@ -5151,8 +5994,11 @@
       <c r="E280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="2">
         <v>42774</v>
       </c>
@@ -5168,8 +6014,11 @@
       <c r="E281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="2">
         <v>42775</v>
       </c>
@@ -5185,8 +6034,11 @@
       <c r="E282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="2">
         <v>42776</v>
       </c>
@@ -5202,8 +6054,11 @@
       <c r="E283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="2">
         <v>42779</v>
       </c>
@@ -5219,8 +6074,11 @@
       <c r="E284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="2">
         <v>42780</v>
       </c>
@@ -5236,8 +6094,11 @@
       <c r="E285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="2">
         <v>42781</v>
       </c>
@@ -5253,8 +6114,11 @@
       <c r="E286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="2">
         <v>42782</v>
       </c>
@@ -5270,8 +6134,11 @@
       <c r="E287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="2">
         <v>42783</v>
       </c>
@@ -5287,8 +6154,11 @@
       <c r="E288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="2">
         <v>42786</v>
       </c>
@@ -5304,8 +6174,11 @@
       <c r="E289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="2">
         <v>42787</v>
       </c>
@@ -5321,8 +6194,11 @@
       <c r="E290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="2">
         <v>42788</v>
       </c>
@@ -5338,8 +6214,11 @@
       <c r="E291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="2">
         <v>42789</v>
       </c>
@@ -5355,8 +6234,11 @@
       <c r="E292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="2">
         <v>42790</v>
       </c>
@@ -5372,8 +6254,11 @@
       <c r="E293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="2">
         <v>42793</v>
       </c>
@@ -5389,8 +6274,11 @@
       <c r="E294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="2">
         <v>42794</v>
       </c>
@@ -5406,8 +6294,11 @@
       <c r="E295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="2">
         <v>42795</v>
       </c>
@@ -5423,8 +6314,11 @@
       <c r="E296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="2">
         <v>42796</v>
       </c>
@@ -5440,8 +6334,11 @@
       <c r="E297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="2">
         <v>42797</v>
       </c>
@@ -5457,8 +6354,11 @@
       <c r="E298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="2">
         <v>42800</v>
       </c>
@@ -5474,8 +6374,11 @@
       <c r="E299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="2">
         <v>42801</v>
       </c>
@@ -5491,8 +6394,11 @@
       <c r="E300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="2">
         <v>42802</v>
       </c>
@@ -5508,8 +6414,11 @@
       <c r="E301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="2">
         <v>42803</v>
       </c>
@@ -5525,8 +6434,11 @@
       <c r="E302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="2">
         <v>42804</v>
       </c>
@@ -5542,8 +6454,11 @@
       <c r="E303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="2">
         <v>42807</v>
       </c>
@@ -5559,8 +6474,11 @@
       <c r="E304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="2">
         <v>42808</v>
       </c>
@@ -5576,8 +6494,11 @@
       <c r="E305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="2">
         <v>42809</v>
       </c>
@@ -5593,8 +6514,11 @@
       <c r="E306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="2">
         <v>42810</v>
       </c>
@@ -5610,8 +6534,11 @@
       <c r="E307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="2">
         <v>42811</v>
       </c>
@@ -5627,8 +6554,11 @@
       <c r="E308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="2">
         <v>42814</v>
       </c>
@@ -5644,8 +6574,11 @@
       <c r="E309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="2">
         <v>42815</v>
       </c>
@@ -5661,8 +6594,11 @@
       <c r="E310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="2">
         <v>42816</v>
       </c>
@@ -5678,8 +6614,11 @@
       <c r="E311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="2">
         <v>42817</v>
       </c>
@@ -5695,8 +6634,11 @@
       <c r="E312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="2">
         <v>42818</v>
       </c>
@@ -5712,8 +6654,11 @@
       <c r="E313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="2">
         <v>42821</v>
       </c>
@@ -5729,8 +6674,11 @@
       <c r="E314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="2">
         <v>42822</v>
       </c>
@@ -5746,8 +6694,11 @@
       <c r="E315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="2">
         <v>42823</v>
       </c>
@@ -5763,8 +6714,11 @@
       <c r="E316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="2">
         <v>42824</v>
       </c>
@@ -5780,8 +6734,11 @@
       <c r="E317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="2">
         <v>42825</v>
       </c>
@@ -5797,8 +6754,11 @@
       <c r="E318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="2">
         <v>42828</v>
       </c>
@@ -5814,8 +6774,11 @@
       <c r="E319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="2">
         <v>42829</v>
       </c>
@@ -5831,8 +6794,11 @@
       <c r="E320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" s="2">
         <v>42830</v>
       </c>
@@ -5848,8 +6814,11 @@
       <c r="E321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" s="2">
         <v>42831</v>
       </c>
@@ -5865,8 +6834,11 @@
       <c r="E322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="2">
         <v>42832</v>
       </c>
@@ -5882,8 +6854,11 @@
       <c r="E323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" s="2">
         <v>42835</v>
       </c>
@@ -5899,8 +6874,11 @@
       <c r="E324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" s="2">
         <v>42836</v>
       </c>
@@ -5916,8 +6894,11 @@
       <c r="E325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" s="2">
         <v>42837</v>
       </c>
@@ -5933,8 +6914,11 @@
       <c r="E326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" s="2">
         <v>42838</v>
       </c>
@@ -5950,8 +6934,11 @@
       <c r="E327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" s="2">
         <v>42843</v>
       </c>
@@ -5967,8 +6954,11 @@
       <c r="E328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" s="2">
         <v>42844</v>
       </c>
@@ -5984,8 +6974,11 @@
       <c r="E329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" s="2">
         <v>42845</v>
       </c>
@@ -6001,8 +6994,11 @@
       <c r="E330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" s="2">
         <v>42846</v>
       </c>
@@ -6018,8 +7014,11 @@
       <c r="E331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" s="2">
         <v>42849</v>
       </c>
@@ -6035,8 +7034,11 @@
       <c r="E332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" s="2">
         <v>42850</v>
       </c>
@@ -6052,8 +7054,11 @@
       <c r="E333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" s="2">
         <v>42851</v>
       </c>
@@ -6069,8 +7074,11 @@
       <c r="E334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" s="2">
         <v>42852</v>
       </c>
@@ -6086,8 +7094,11 @@
       <c r="E335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" s="2">
         <v>42853</v>
       </c>
@@ -6103,8 +7114,11 @@
       <c r="E336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" s="2">
         <v>42857</v>
       </c>
@@ -6120,8 +7134,11 @@
       <c r="E337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" s="2">
         <v>42858</v>
       </c>
@@ -6137,8 +7154,11 @@
       <c r="E338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" s="2">
         <v>42859</v>
       </c>
@@ -6154,8 +7174,11 @@
       <c r="E339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" s="2">
         <v>42860</v>
       </c>
@@ -6171,8 +7194,11 @@
       <c r="E340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" s="2">
         <v>42863</v>
       </c>
@@ -6188,8 +7214,11 @@
       <c r="E341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" s="2">
         <v>42864</v>
       </c>
@@ -6205,8 +7234,11 @@
       <c r="E342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" s="2">
         <v>42865</v>
       </c>
@@ -6222,8 +7254,11 @@
       <c r="E343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" s="2">
         <v>42866</v>
       </c>
@@ -6239,8 +7274,11 @@
       <c r="E344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" s="2">
         <v>42867</v>
       </c>
@@ -6256,8 +7294,11 @@
       <c r="E345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" s="2">
         <v>42870</v>
       </c>
@@ -6273,8 +7314,11 @@
       <c r="E346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" s="2">
         <v>42871</v>
       </c>
@@ -6290,8 +7334,11 @@
       <c r="E347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" s="2">
         <v>42872</v>
       </c>
@@ -6307,8 +7354,11 @@
       <c r="E348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" s="2">
         <v>42873</v>
       </c>
@@ -6324,8 +7374,11 @@
       <c r="E349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" s="2">
         <v>42874</v>
       </c>
@@ -6341,8 +7394,11 @@
       <c r="E350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" s="2">
         <v>42877</v>
       </c>
@@ -6358,8 +7414,11 @@
       <c r="E351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" s="2">
         <v>42878</v>
       </c>
@@ -6375,8 +7434,11 @@
       <c r="E352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" s="2">
         <v>42879</v>
       </c>
@@ -6392,8 +7454,11 @@
       <c r="E353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" s="2">
         <v>42880</v>
       </c>
@@ -6409,8 +7474,11 @@
       <c r="E354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" s="2">
         <v>42881</v>
       </c>
@@ -6426,8 +7494,11 @@
       <c r="E355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" s="2">
         <v>42885</v>
       </c>
@@ -6443,8 +7514,11 @@
       <c r="E356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" s="2">
         <v>42886</v>
       </c>
@@ -6460,8 +7534,11 @@
       <c r="E357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:5">
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" s="2">
         <v>42887</v>
       </c>
@@ -6477,8 +7554,11 @@
       <c r="E358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:5">
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" s="2">
         <v>42888</v>
       </c>
@@ -6494,8 +7574,11 @@
       <c r="E359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:5">
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" s="2">
         <v>42891</v>
       </c>
@@ -6511,8 +7594,11 @@
       <c r="E360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:5">
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" s="2">
         <v>42892</v>
       </c>
@@ -6528,8 +7614,11 @@
       <c r="E361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:5">
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" s="2">
         <v>42893</v>
       </c>
@@ -6545,8 +7634,11 @@
       <c r="E362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" s="2">
         <v>42894</v>
       </c>
@@ -6562,8 +7654,11 @@
       <c r="E363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" s="2">
         <v>42895</v>
       </c>
@@ -6579,8 +7674,11 @@
       <c r="E364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" s="2">
         <v>42898</v>
       </c>
@@ -6596,8 +7694,11 @@
       <c r="E365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" s="2">
         <v>42899</v>
       </c>
@@ -6613,8 +7714,11 @@
       <c r="E366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="F366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" s="2">
         <v>42900</v>
       </c>
@@ -6630,8 +7734,11 @@
       <c r="E367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:5">
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" s="2">
         <v>42901</v>
       </c>
@@ -6647,8 +7754,11 @@
       <c r="E368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:5">
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" s="2">
         <v>42902</v>
       </c>
@@ -6664,8 +7774,11 @@
       <c r="E369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" s="2">
         <v>42905</v>
       </c>
@@ -6681,8 +7794,11 @@
       <c r="E370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:5">
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" s="2">
         <v>42906</v>
       </c>
@@ -6698,8 +7814,11 @@
       <c r="E371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:5">
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" s="2">
         <v>42907</v>
       </c>
@@ -6715,8 +7834,11 @@
       <c r="E372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:5">
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373" s="2">
         <v>42908</v>
       </c>
@@ -6732,8 +7854,11 @@
       <c r="E373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:5">
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="2">
         <v>42909</v>
       </c>
@@ -6749,8 +7874,11 @@
       <c r="E374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:5">
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" s="2">
         <v>42912</v>
       </c>
@@ -6766,8 +7894,11 @@
       <c r="E375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:5">
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" s="2">
         <v>42913</v>
       </c>
@@ -6783,8 +7914,11 @@
       <c r="E376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:5">
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" s="2">
         <v>42914</v>
       </c>
@@ -6800,8 +7934,11 @@
       <c r="E377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:5">
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378" s="2">
         <v>42915</v>
       </c>
@@ -6817,8 +7954,11 @@
       <c r="E378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:5">
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" s="2">
         <v>42916</v>
       </c>
@@ -6834,8 +7974,11 @@
       <c r="E379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:5">
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380" s="2">
         <v>42919</v>
       </c>
@@ -6851,8 +7994,11 @@
       <c r="E380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" s="2">
         <v>42920</v>
       </c>
@@ -6868,8 +8014,11 @@
       <c r="E381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:5">
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" s="2">
         <v>42921</v>
       </c>
@@ -6885,8 +8034,11 @@
       <c r="E382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:5">
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" s="2">
         <v>42922</v>
       </c>
@@ -6902,8 +8054,11 @@
       <c r="E383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" s="2">
         <v>42923</v>
       </c>
@@ -6919,8 +8074,11 @@
       <c r="E384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:5">
+      <c r="F384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" s="2">
         <v>42926</v>
       </c>
@@ -6936,8 +8094,11 @@
       <c r="E385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:5">
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386" s="2">
         <v>42927</v>
       </c>
@@ -6948,13 +8109,16 @@
         <v>11</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>35.1493848857645</v>
       </c>
       <c r="E386">
         <v>2845</v>
       </c>
-    </row>
-    <row r="387" spans="1:5">
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387" s="2">
         <v>42928</v>
       </c>
@@ -6970,8 +8134,11 @@
       <c r="E387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:5">
+      <c r="F387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388" s="2">
         <v>42929</v>
       </c>
@@ -6987,8 +8154,11 @@
       <c r="E388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:5">
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389" s="2">
         <v>42930</v>
       </c>
@@ -7004,8 +8174,11 @@
       <c r="E389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:5">
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390" s="2">
         <v>42933</v>
       </c>
@@ -7021,8 +8194,11 @@
       <c r="E390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:5">
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" s="2">
         <v>42934</v>
       </c>
@@ -7038,8 +8214,11 @@
       <c r="E391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="2">
         <v>42935</v>
       </c>
@@ -7055,8 +8234,11 @@
       <c r="E392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:5">
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" s="2">
         <v>42936</v>
       </c>
@@ -7072,8 +8254,11 @@
       <c r="E393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:5">
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394" s="2">
         <v>42937</v>
       </c>
@@ -7089,8 +8274,11 @@
       <c r="E394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:5">
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395" s="2">
         <v>42940</v>
       </c>
@@ -7106,8 +8294,11 @@
       <c r="E395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:5">
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" s="2">
         <v>42941</v>
       </c>
@@ -7123,8 +8314,11 @@
       <c r="E396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:5">
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397" s="2">
         <v>42942</v>
       </c>
@@ -7140,8 +8334,11 @@
       <c r="E397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:5">
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398" s="2">
         <v>42943</v>
       </c>
@@ -7157,8 +8354,11 @@
       <c r="E398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:5">
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
       <c r="A399" s="2">
         <v>42944</v>
       </c>
@@ -7174,8 +8374,11 @@
       <c r="E399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:5">
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
       <c r="A400" s="2">
         <v>42947</v>
       </c>
@@ -7191,8 +8394,11 @@
       <c r="E400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:5">
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401" s="2">
         <v>42948</v>
       </c>
@@ -7208,8 +8414,11 @@
       <c r="E401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:5">
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402" s="2">
         <v>42949</v>
       </c>
@@ -7225,8 +8434,11 @@
       <c r="E402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:5">
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" s="2">
         <v>42950</v>
       </c>
@@ -7242,8 +8454,11 @@
       <c r="E403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:5">
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404" s="2">
         <v>42951</v>
       </c>
@@ -7259,8 +8474,11 @@
       <c r="E404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:5">
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" s="2">
         <v>42954</v>
       </c>
@@ -7276,8 +8494,11 @@
       <c r="E405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
+      <c r="F405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406" s="2">
         <v>42955</v>
       </c>
@@ -7293,8 +8514,11 @@
       <c r="E406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407" s="2">
         <v>42956</v>
       </c>
@@ -7310,8 +8534,11 @@
       <c r="E407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:5">
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408" s="2">
         <v>42957</v>
       </c>
@@ -7327,8 +8554,11 @@
       <c r="E408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409" s="2">
         <v>42958</v>
       </c>
@@ -7344,8 +8574,11 @@
       <c r="E409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:5">
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" s="2">
         <v>42961</v>
       </c>
@@ -7361,8 +8594,11 @@
       <c r="E410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:5">
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411" s="2">
         <v>42962</v>
       </c>
@@ -7378,8 +8614,11 @@
       <c r="E411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:5">
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412" s="2">
         <v>42963</v>
       </c>
@@ -7395,8 +8634,11 @@
       <c r="E412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:5">
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413" s="2">
         <v>42964</v>
       </c>
@@ -7412,8 +8654,11 @@
       <c r="E413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:5">
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414" s="2">
         <v>42965</v>
       </c>
@@ -7429,8 +8674,11 @@
       <c r="E414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:5">
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415" s="2">
         <v>42968</v>
       </c>
@@ -7446,8 +8694,11 @@
       <c r="E415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:5">
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416" s="2">
         <v>42969</v>
       </c>
@@ -7463,8 +8714,11 @@
       <c r="E416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:5">
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417" s="2">
         <v>42970</v>
       </c>
@@ -7478,6 +8732,9 @@
         <v>0</v>
       </c>
       <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
         <v>0</v>
       </c>
     </row>

--- a/historical_trades.xlsx
+++ b/historical_trades.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ABF</t>
+    <t>cash</t>
   </si>
   <si>
-    <t>ABFBUY</t>
+    <t>BA</t>
   </si>
   <si>
-    <t>ABFnHELD</t>
+    <t>BAHOLD</t>
   </si>
   <si>
-    <t>ABFPP</t>
+    <t>BAB</t>
   </si>
   <si>
-    <t>ABFtest</t>
+    <t>BABHOLD</t>
   </si>
   <si>
     <t>Date</t>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F417"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +426,16 @@
         <v>42373</v>
       </c>
       <c r="B2">
-        <v>3276</v>
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>493.5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -443,16 +446,16 @@
         <v>42374</v>
       </c>
       <c r="B3">
-        <v>3250</v>
+        <v>10000</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>988.5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -463,16 +466,16 @@
         <v>42375</v>
       </c>
       <c r="B4">
-        <v>3193</v>
+        <v>10000</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>512.5</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -483,16 +486,16 @@
         <v>42376</v>
       </c>
       <c r="B5">
-        <v>3112</v>
+        <v>10000</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>505.5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -503,16 +506,16 @@
         <v>42377</v>
       </c>
       <c r="B6">
-        <v>3033</v>
+        <v>10000</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>519.5</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -523,16 +526,16 @@
         <v>42380</v>
       </c>
       <c r="B7">
-        <v>3036</v>
+        <v>10000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>526.5</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -543,16 +546,16 @@
         <v>42381</v>
       </c>
       <c r="B8">
-        <v>3049</v>
+        <v>10000</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>521.5</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>954.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -563,16 +566,16 @@
         <v>42382</v>
       </c>
       <c r="B9">
-        <v>3041</v>
+        <v>10000</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>524.5</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -583,16 +586,16 @@
         <v>42383</v>
       </c>
       <c r="B10">
-        <v>3019</v>
+        <v>10000</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>518.5</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>974.5</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -603,16 +606,16 @@
         <v>42384</v>
       </c>
       <c r="B11">
-        <v>2986</v>
+        <v>10000</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>513.5</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>944.5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -623,16 +626,16 @@
         <v>42387</v>
       </c>
       <c r="B12">
-        <v>3002</v>
+        <v>10000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>932.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -643,16 +646,16 @@
         <v>42388</v>
       </c>
       <c r="B13">
-        <v>3010</v>
+        <v>10000</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>949.5</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -663,16 +666,16 @@
         <v>42389</v>
       </c>
       <c r="B14">
-        <v>2922</v>
+        <v>10000</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -683,16 +686,16 @@
         <v>42390</v>
       </c>
       <c r="B15">
-        <v>2949</v>
+        <v>10000</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>479.2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -703,16 +706,16 @@
         <v>42391</v>
       </c>
       <c r="B16">
-        <v>2995</v>
+        <v>10000</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>492.7</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>933.5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -723,16 +726,16 @@
         <v>42394</v>
       </c>
       <c r="B17">
-        <v>3021</v>
+        <v>10000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>495.8</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -743,16 +746,16 @@
         <v>42395</v>
       </c>
       <c r="B18">
-        <v>3015</v>
+        <v>10000</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>502.5</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>920.5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -763,16 +766,16 @@
         <v>42396</v>
       </c>
       <c r="B19">
-        <v>3078</v>
+        <v>10000</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>924.5</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -783,16 +786,16 @@
         <v>42397</v>
       </c>
       <c r="B20">
-        <v>3050</v>
+        <v>10000</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>505.5</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -803,16 +806,16 @@
         <v>42398</v>
       </c>
       <c r="B21">
-        <v>3150</v>
+        <v>10000</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -823,16 +826,16 @@
         <v>42401</v>
       </c>
       <c r="B22">
-        <v>3150</v>
+        <v>10000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>908.5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -843,16 +846,16 @@
         <v>42402</v>
       </c>
       <c r="B23">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>893.5</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -863,16 +866,16 @@
         <v>42403</v>
       </c>
       <c r="B24">
-        <v>3159</v>
+        <v>10000</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>486.3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>876.5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -883,16 +886,16 @@
         <v>42404</v>
       </c>
       <c r="B25">
-        <v>3135</v>
+        <v>10000</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>489.8</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>888.5</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -903,16 +906,16 @@
         <v>42405</v>
       </c>
       <c r="B26">
-        <v>3097</v>
+        <v>10000</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>902.5</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -923,16 +926,16 @@
         <v>42408</v>
       </c>
       <c r="B27">
-        <v>3045</v>
+        <v>10000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>467.5</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -943,16 +946,16 @@
         <v>42409</v>
       </c>
       <c r="B28">
-        <v>3039</v>
+        <v>10000</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>469.9</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>862.5</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -963,16 +966,16 @@
         <v>42410</v>
       </c>
       <c r="B29">
-        <v>3041</v>
+        <v>10000</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>470.5</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>869.5</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -983,16 +986,16 @@
         <v>42411</v>
       </c>
       <c r="B30">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>459.7</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1003,16 +1006,16 @@
         <v>42412</v>
       </c>
       <c r="B31">
-        <v>3052</v>
+        <v>10000</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>467.1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>868.5</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1023,16 +1026,16 @@
         <v>42415</v>
       </c>
       <c r="B32">
-        <v>3119</v>
+        <v>10000</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>481.7</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1043,16 +1046,16 @@
         <v>42416</v>
       </c>
       <c r="B33">
-        <v>3153</v>
+        <v>10000</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1063,16 +1066,16 @@
         <v>42417</v>
       </c>
       <c r="B34">
-        <v>3259</v>
+        <v>10000</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>499.3</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1083,16 +1086,16 @@
         <v>42418</v>
       </c>
       <c r="B35">
-        <v>3229</v>
+        <v>10000</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>923.5</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1103,16 +1106,16 @@
         <v>42419</v>
       </c>
       <c r="B36">
-        <v>3255</v>
+        <v>10000</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>505.5</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>922.5</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1123,16 +1126,16 @@
         <v>42422</v>
       </c>
       <c r="B37">
-        <v>3289</v>
+        <v>10000</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>923.5</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1143,16 +1146,16 @@
         <v>42423</v>
       </c>
       <c r="B38">
-        <v>3298</v>
+        <v>10000</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>508.5</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1163,16 +1166,16 @@
         <v>42424</v>
       </c>
       <c r="B39">
-        <v>3321</v>
+        <v>10000</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1183,16 +1186,16 @@
         <v>42425</v>
       </c>
       <c r="B40">
-        <v>3370</v>
+        <v>10000</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>512.5</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>910.5</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1203,16 +1206,16 @@
         <v>42426</v>
       </c>
       <c r="B41">
-        <v>3363</v>
+        <v>10000</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1223,16 +1226,16 @@
         <v>42429</v>
       </c>
       <c r="B42">
-        <v>3406</v>
+        <v>10000</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1243,16 +1246,16 @@
         <v>42430</v>
       </c>
       <c r="B43">
-        <v>3445</v>
+        <v>10000</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>511</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>929.5</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1263,16 +1266,16 @@
         <v>42431</v>
       </c>
       <c r="B44">
-        <v>3354</v>
+        <v>10000</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>504.5</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1283,16 +1286,16 @@
         <v>42432</v>
       </c>
       <c r="B45">
-        <v>3290</v>
+        <v>10000</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>499.7</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>945.5</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1303,16 +1306,16 @@
         <v>42433</v>
       </c>
       <c r="B46">
-        <v>3341</v>
+        <v>10000</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1323,16 +1326,16 @@
         <v>42436</v>
       </c>
       <c r="B47">
-        <v>3343</v>
+        <v>10000</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>500.5</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1343,16 +1346,16 @@
         <v>42437</v>
       </c>
       <c r="B48">
-        <v>3321</v>
+        <v>10000</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>496.7</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1363,16 +1366,16 @@
         <v>42438</v>
       </c>
       <c r="B49">
-        <v>3322</v>
+        <v>10000</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1383,16 +1386,16 @@
         <v>42439</v>
       </c>
       <c r="B50">
-        <v>3301</v>
+        <v>10000</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>494.1</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>922.5</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1403,16 +1406,16 @@
         <v>42440</v>
       </c>
       <c r="B51">
-        <v>3354</v>
+        <v>10000</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>496.5</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>949.5</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1423,16 +1426,16 @@
         <v>42443</v>
       </c>
       <c r="B52">
-        <v>3370</v>
+        <v>10000</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>497.5</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1443,16 +1446,16 @@
         <v>42444</v>
       </c>
       <c r="B53">
-        <v>3370</v>
+        <v>10000</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>497.2</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>956.75</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1463,16 +1466,16 @@
         <v>42445</v>
       </c>
       <c r="B54">
-        <v>3387</v>
+        <v>10000</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1483,16 +1486,16 @@
         <v>42446</v>
       </c>
       <c r="B55">
-        <v>3378</v>
+        <v>10000</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>938.5</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1503,16 +1506,16 @@
         <v>42447</v>
       </c>
       <c r="B56">
-        <v>3420</v>
+        <v>10000</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>497.1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>945.5</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1523,16 +1526,16 @@
         <v>42450</v>
       </c>
       <c r="B57">
-        <v>3411</v>
+        <v>10000</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>497.6</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>940.5</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1543,16 +1546,16 @@
         <v>42451</v>
       </c>
       <c r="B58">
-        <v>3430</v>
+        <v>10000</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>496.86</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1563,16 +1566,16 @@
         <v>42452</v>
       </c>
       <c r="B59">
-        <v>3458</v>
+        <v>10000</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1583,16 +1586,16 @@
         <v>42453</v>
       </c>
       <c r="B60">
-        <v>3265</v>
+        <v>10000</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>498.5</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>934.5</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1603,16 +1606,16 @@
         <v>42458</v>
       </c>
       <c r="B61">
-        <v>3369</v>
+        <v>10000</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>948.5</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1623,16 +1626,16 @@
         <v>42459</v>
       </c>
       <c r="B62">
-        <v>3369</v>
+        <v>10000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>512.6799999999999</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>945.5</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1643,16 +1646,16 @@
         <v>42460</v>
       </c>
       <c r="B63">
-        <v>3349</v>
+        <v>10000</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>949.5</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1663,16 +1666,16 @@
         <v>42461</v>
       </c>
       <c r="B64">
-        <v>3344</v>
+        <v>10000</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>501.5</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>952.5</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1683,16 +1686,16 @@
         <v>42464</v>
       </c>
       <c r="B65">
-        <v>3393</v>
+        <v>10000</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>501.5</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1703,16 +1706,16 @@
         <v>42465</v>
       </c>
       <c r="B66">
-        <v>3399</v>
+        <v>10000</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>492.5</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1723,16 +1726,16 @@
         <v>42466</v>
       </c>
       <c r="B67">
-        <v>3415</v>
+        <v>10000</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>493.8</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1743,16 +1746,16 @@
         <v>42467</v>
       </c>
       <c r="B68">
-        <v>3387</v>
+        <v>10000</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>491.6</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>953.5</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1763,16 +1766,16 @@
         <v>42468</v>
       </c>
       <c r="B69">
-        <v>3368</v>
+        <v>10000</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>498.1</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>967.5</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1783,16 +1786,16 @@
         <v>42471</v>
       </c>
       <c r="B70">
-        <v>3351</v>
+        <v>10000</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>499</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>965.11</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1803,16 +1806,16 @@
         <v>42472</v>
       </c>
       <c r="B71">
-        <v>3318</v>
+        <v>10000</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>501.5</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1823,16 +1826,16 @@
         <v>42473</v>
       </c>
       <c r="B72">
-        <v>3367</v>
+        <v>10000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>991.5</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1843,16 +1846,16 @@
         <v>42474</v>
       </c>
       <c r="B73">
-        <v>3362</v>
+        <v>10000</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>510.5</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1863,16 +1866,16 @@
         <v>42475</v>
       </c>
       <c r="B74">
-        <v>3357</v>
+        <v>10000</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>983.5</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1883,16 +1886,16 @@
         <v>42478</v>
       </c>
       <c r="B75">
-        <v>3347</v>
+        <v>10000</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>978.5</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1903,16 +1906,16 @@
         <v>42479</v>
       </c>
       <c r="B76">
-        <v>3413</v>
+        <v>10000</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>517.5</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1923,16 +1926,16 @@
         <v>42480</v>
       </c>
       <c r="B77">
-        <v>3330</v>
+        <v>10000</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>510.5</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>985.5</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1943,16 +1946,16 @@
         <v>42481</v>
       </c>
       <c r="B78">
-        <v>3227</v>
+        <v>10000</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>498.6</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1963,16 +1966,16 @@
         <v>42482</v>
       </c>
       <c r="B79">
-        <v>3131</v>
+        <v>10000</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>489.4</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>965.5</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1983,16 +1986,16 @@
         <v>42485</v>
       </c>
       <c r="B80">
-        <v>3125</v>
+        <v>10000</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>489.9</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>960.5</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2003,16 +2006,16 @@
         <v>42486</v>
       </c>
       <c r="B81">
-        <v>3132</v>
+        <v>10000</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>484.3</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2023,16 +2026,16 @@
         <v>42487</v>
       </c>
       <c r="B82">
-        <v>3159</v>
+        <v>10000</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>488.1</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>955.14</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2043,16 +2046,16 @@
         <v>42488</v>
       </c>
       <c r="B83">
-        <v>3068</v>
+        <v>10000</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>955.5</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2063,16 +2066,16 @@
         <v>42489</v>
       </c>
       <c r="B84">
-        <v>3064</v>
+        <v>10000</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>477.3</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>947.5</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2083,16 +2086,16 @@
         <v>42493</v>
       </c>
       <c r="B85">
-        <v>3090</v>
+        <v>10000</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>476.2</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2103,16 +2106,16 @@
         <v>42494</v>
       </c>
       <c r="B86">
-        <v>3085</v>
+        <v>10000</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>478.5</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2123,16 +2126,16 @@
         <v>42495</v>
       </c>
       <c r="B87">
-        <v>3116</v>
+        <v>10000</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>480.6</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>932.5</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2143,16 +2146,16 @@
         <v>42496</v>
       </c>
       <c r="B88">
-        <v>3099</v>
+        <v>10000</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>489</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>936.5</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2163,16 +2166,16 @@
         <v>42499</v>
       </c>
       <c r="B89">
-        <v>3168</v>
+        <v>10000</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>491.1</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>940.5</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2183,16 +2186,16 @@
         <v>42500</v>
       </c>
       <c r="B90">
-        <v>3113</v>
+        <v>10000</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>493.8</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2203,16 +2206,16 @@
         <v>42501</v>
       </c>
       <c r="B91">
-        <v>3104</v>
+        <v>10000</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>490.4</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2223,16 +2226,16 @@
         <v>42502</v>
       </c>
       <c r="B92">
-        <v>3015</v>
+        <v>10000</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>487.8</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2243,16 +2246,16 @@
         <v>42503</v>
       </c>
       <c r="B93">
-        <v>3037</v>
+        <v>10000</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>487.8</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>958.5</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2263,16 +2266,16 @@
         <v>42506</v>
       </c>
       <c r="B94">
-        <v>3051</v>
+        <v>10000</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>490.1</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>958.5</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2283,16 +2286,16 @@
         <v>42507</v>
       </c>
       <c r="B95">
-        <v>2980</v>
+        <v>10000</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>486.3</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>975.5</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2303,16 +2306,16 @@
         <v>42508</v>
       </c>
       <c r="B96">
-        <v>2959</v>
+        <v>10000</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>481.7</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>980.5</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2323,16 +2326,16 @@
         <v>42509</v>
       </c>
       <c r="B97">
-        <v>2885</v>
+        <v>10000</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>477.9</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>979.5</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2343,16 +2346,16 @@
         <v>42510</v>
       </c>
       <c r="B98">
-        <v>2920</v>
+        <v>10000</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>483.5</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2363,16 +2366,16 @@
         <v>42513</v>
       </c>
       <c r="B99">
-        <v>2910.22</v>
+        <v>10000</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>479.7</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2383,16 +2386,16 @@
         <v>42514</v>
       </c>
       <c r="B100">
-        <v>2945</v>
+        <v>10000</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>482.9</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2403,16 +2406,16 @@
         <v>42515</v>
       </c>
       <c r="B101">
-        <v>2955</v>
+        <v>10000</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>481.2</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2423,16 +2426,16 @@
         <v>42516</v>
       </c>
       <c r="B102">
-        <v>2940</v>
+        <v>10000</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>482.3</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2443,16 +2446,16 @@
         <v>42517</v>
       </c>
       <c r="B103">
-        <v>2950</v>
+        <v>10000</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>483</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2463,16 +2466,16 @@
         <v>42521</v>
       </c>
       <c r="B104">
-        <v>2944</v>
+        <v>10000</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>483.6</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2483,16 +2486,16 @@
         <v>42522</v>
       </c>
       <c r="B105">
-        <v>2928</v>
+        <v>10000</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>488</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2503,16 +2506,16 @@
         <v>42523</v>
       </c>
       <c r="B106">
-        <v>2900</v>
+        <v>10000</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>492.8</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2523,16 +2526,16 @@
         <v>42524</v>
       </c>
       <c r="B107">
-        <v>2951</v>
+        <v>10000</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>490.9</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2543,16 +2546,16 @@
         <v>42527</v>
       </c>
       <c r="B108">
-        <v>2949</v>
+        <v>10000</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>491.6</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2563,16 +2566,16 @@
         <v>42528</v>
       </c>
       <c r="B109">
-        <v>2940</v>
+        <v>10000</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>494</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2583,16 +2586,16 @@
         <v>42529</v>
       </c>
       <c r="B110">
-        <v>2943</v>
+        <v>10000</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>492.9</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2603,16 +2606,16 @@
         <v>42530</v>
       </c>
       <c r="B111">
-        <v>2940</v>
+        <v>10000</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>485.5</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2623,16 +2626,16 @@
         <v>42531</v>
       </c>
       <c r="B112">
-        <v>2867</v>
+        <v>10000</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>479.5</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1018.7</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2643,16 +2646,16 @@
         <v>42534</v>
       </c>
       <c r="B113">
-        <v>2856</v>
+        <v>10000</v>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>476.3</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>999.5</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2663,16 +2666,16 @@
         <v>42535</v>
       </c>
       <c r="B114">
-        <v>2822</v>
+        <v>10000</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>475</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2683,16 +2686,16 @@
         <v>42536</v>
       </c>
       <c r="B115">
-        <v>2835</v>
+        <v>10000</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>477.6</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>974.5</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2703,16 +2706,16 @@
         <v>42537</v>
       </c>
       <c r="B116">
-        <v>2781</v>
+        <v>10000</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>475.4</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2723,16 +2726,16 @@
         <v>42538</v>
       </c>
       <c r="B117">
-        <v>2775</v>
+        <v>10000</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>478.8</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2743,16 +2746,16 @@
         <v>42541</v>
       </c>
       <c r="B118">
-        <v>2894</v>
+        <v>10000</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>494.8</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2763,16 +2766,16 @@
         <v>42542</v>
       </c>
       <c r="B119">
-        <v>2901</v>
+        <v>10000</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>496</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2783,16 +2786,16 @@
         <v>42543</v>
       </c>
       <c r="B120">
-        <v>2802</v>
+        <v>10000</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>502.5</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2803,16 +2806,16 @@
         <v>42544</v>
       </c>
       <c r="B121">
-        <v>2829</v>
+        <v>10000</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2823,19 +2826,19 @@
         <v>42545</v>
       </c>
       <c r="B122">
-        <v>2775</v>
+        <v>10000</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>480.8</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>933.5</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2843,16 +2846,16 @@
         <v>42548</v>
       </c>
       <c r="B123">
-        <v>2350</v>
+        <v>10000</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>468.9</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>869.5</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2863,16 +2866,16 @@
         <v>42549</v>
       </c>
       <c r="B124">
-        <v>2555</v>
+        <v>10000</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>483.4</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2883,16 +2886,16 @@
         <v>42550</v>
       </c>
       <c r="B125">
-        <v>2665</v>
+        <v>10000</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>505.5</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>917.5</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2903,16 +2906,16 @@
         <v>42551</v>
       </c>
       <c r="B126">
-        <v>2719</v>
+        <v>10000</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>524</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>904.5</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2923,16 +2926,16 @@
         <v>42552</v>
       </c>
       <c r="B127">
-        <v>2732</v>
+        <v>10000</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>530</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>928.5</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2943,16 +2946,16 @@
         <v>42555</v>
       </c>
       <c r="B128">
-        <v>2675</v>
+        <v>10000</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>528.5</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2963,16 +2966,16 @@
         <v>42556</v>
       </c>
       <c r="B129">
-        <v>2606</v>
+        <v>10000</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -2983,16 +2986,16 @@
         <v>42557</v>
       </c>
       <c r="B130">
-        <v>2553</v>
+        <v>10000</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>526.5</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3003,16 +3006,16 @@
         <v>42558</v>
       </c>
       <c r="B131">
-        <v>2780</v>
+        <v>10000</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>530</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>909.5</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3023,16 +3026,16 @@
         <v>42559</v>
       </c>
       <c r="B132">
-        <v>2826</v>
+        <v>10000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>537.5</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3043,16 +3046,16 @@
         <v>42562</v>
       </c>
       <c r="B133">
-        <v>2844</v>
+        <v>10000</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>949.5599999999999</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3063,16 +3066,16 @@
         <v>42563</v>
       </c>
       <c r="B134">
-        <v>2820</v>
+        <v>10000</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3083,16 +3086,16 @@
         <v>42564</v>
       </c>
       <c r="B135">
-        <v>2800</v>
+        <v>10000</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3103,16 +3106,16 @@
         <v>42565</v>
       </c>
       <c r="B136">
-        <v>2772</v>
+        <v>10000</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>539.5</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>948.5</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3123,16 +3126,16 @@
         <v>42566</v>
       </c>
       <c r="B137">
-        <v>2792</v>
+        <v>10000</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3143,16 +3146,16 @@
         <v>42569</v>
       </c>
       <c r="B138">
-        <v>2811</v>
+        <v>10000</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>961.5</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3163,16 +3166,16 @@
         <v>42570</v>
       </c>
       <c r="B139">
-        <v>2806</v>
+        <v>10000</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>540.5</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3183,16 +3186,16 @@
         <v>42571</v>
       </c>
       <c r="B140">
-        <v>2810</v>
+        <v>10000</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3203,16 +3206,16 @@
         <v>42572</v>
       </c>
       <c r="B141">
-        <v>2770</v>
+        <v>10000</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>963.5</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3223,16 +3226,16 @@
         <v>42573</v>
       </c>
       <c r="B142">
-        <v>2735</v>
+        <v>10000</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>532.5</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>954.5</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3243,16 +3246,16 @@
         <v>42576</v>
       </c>
       <c r="B143">
-        <v>2711</v>
+        <v>10000</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3263,16 +3266,16 @@
         <v>42577</v>
       </c>
       <c r="B144">
-        <v>2716</v>
+        <v>10000</v>
       </c>
       <c r="C144">
-        <v>10</v>
+        <v>534.5</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3283,16 +3286,16 @@
         <v>42578</v>
       </c>
       <c r="B145">
-        <v>2718</v>
+        <v>10000</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>539.5</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3303,16 +3306,16 @@
         <v>42579</v>
       </c>
       <c r="B146">
-        <v>2686</v>
+        <v>10000</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>968.5</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3323,16 +3326,16 @@
         <v>42580</v>
       </c>
       <c r="B147">
-        <v>2691</v>
+        <v>10000</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>534</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3343,16 +3346,16 @@
         <v>42583</v>
       </c>
       <c r="B148">
-        <v>2737</v>
+        <v>10000</v>
       </c>
       <c r="C148">
-        <v>10</v>
+        <v>531</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3363,16 +3366,16 @@
         <v>42584</v>
       </c>
       <c r="B149">
-        <v>2718</v>
+        <v>10000</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>526.5</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>968.5</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3383,16 +3386,16 @@
         <v>42585</v>
       </c>
       <c r="B150">
-        <v>2830</v>
+        <v>10000</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>948.5</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3403,16 +3406,16 @@
         <v>42586</v>
       </c>
       <c r="B151">
-        <v>2897</v>
+        <v>10000</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>968.5</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3423,16 +3426,16 @@
         <v>42587</v>
       </c>
       <c r="B152">
-        <v>2913</v>
+        <v>10000</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>531</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3443,16 +3446,16 @@
         <v>42590</v>
       </c>
       <c r="B153">
-        <v>2903</v>
+        <v>10000</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>525.5</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>981.5</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3463,16 +3466,16 @@
         <v>42591</v>
       </c>
       <c r="B154">
-        <v>2945</v>
+        <v>10000</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3483,16 +3486,16 @@
         <v>42592</v>
       </c>
       <c r="B155">
-        <v>2930</v>
+        <v>10000</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>521.5</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3503,16 +3506,16 @@
         <v>42593</v>
       </c>
       <c r="B156">
-        <v>2949</v>
+        <v>10000</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>527</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3523,16 +3526,16 @@
         <v>42594</v>
       </c>
       <c r="B157">
-        <v>2992</v>
+        <v>10000</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>531.5</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3543,16 +3546,16 @@
         <v>42597</v>
       </c>
       <c r="B158">
-        <v>2997</v>
+        <v>10000</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>533.5</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3563,16 +3566,16 @@
         <v>42598</v>
       </c>
       <c r="B159">
-        <v>2982</v>
+        <v>10000</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>521.5</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3583,16 +3586,16 @@
         <v>42599</v>
       </c>
       <c r="B160">
-        <v>2972</v>
+        <v>10000</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>522.5</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3603,16 +3606,16 @@
         <v>42600</v>
       </c>
       <c r="B161">
-        <v>2991</v>
+        <v>10000</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>527.5</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3623,16 +3626,16 @@
         <v>42601</v>
       </c>
       <c r="B162">
-        <v>2979</v>
+        <v>10000</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>529</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3643,16 +3646,16 @@
         <v>42604</v>
       </c>
       <c r="B163">
-        <v>2983</v>
+        <v>10000</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>528.5</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3663,16 +3666,16 @@
         <v>42605</v>
       </c>
       <c r="B164">
-        <v>3001</v>
+        <v>10000</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>532</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3683,16 +3686,16 @@
         <v>42606</v>
       </c>
       <c r="B165">
-        <v>2968</v>
+        <v>10000</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>530.5</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3703,16 +3706,16 @@
         <v>42607</v>
       </c>
       <c r="B166">
-        <v>2952</v>
+        <v>10000</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>528.5</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3723,16 +3726,16 @@
         <v>42608</v>
       </c>
       <c r="B167">
-        <v>2950</v>
+        <v>10000</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>540.5</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3743,16 +3746,16 @@
         <v>42612</v>
       </c>
       <c r="B168">
-        <v>3051</v>
+        <v>10000</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3763,16 +3766,16 @@
         <v>42613</v>
       </c>
       <c r="B169">
-        <v>3041</v>
+        <v>10000</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>538.5</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3783,16 +3786,16 @@
         <v>42614</v>
       </c>
       <c r="B170">
-        <v>3100</v>
+        <v>10000</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>539.5</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3803,16 +3806,16 @@
         <v>42615</v>
       </c>
       <c r="B171">
-        <v>3155</v>
+        <v>10000</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>548</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3823,16 +3826,16 @@
         <v>42618</v>
       </c>
       <c r="B172">
-        <v>3144</v>
+        <v>10000</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>555.5</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3843,16 +3846,16 @@
         <v>42619</v>
       </c>
       <c r="B173">
-        <v>3165</v>
+        <v>10000</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3863,16 +3866,16 @@
         <v>42620</v>
       </c>
       <c r="B174">
-        <v>3169</v>
+        <v>10000</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>552.5</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3883,16 +3886,16 @@
         <v>42621</v>
       </c>
       <c r="B175">
-        <v>3172</v>
+        <v>10000</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>550.5</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3903,16 +3906,16 @@
         <v>42622</v>
       </c>
       <c r="B176">
-        <v>3156</v>
+        <v>10000</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>548</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3923,16 +3926,16 @@
         <v>42625</v>
       </c>
       <c r="B177">
-        <v>2815</v>
+        <v>10000</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>545</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3943,16 +3946,16 @@
         <v>42626</v>
       </c>
       <c r="B178">
-        <v>2740</v>
+        <v>10000</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>544.5</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -3963,16 +3966,16 @@
         <v>42627</v>
       </c>
       <c r="B179">
-        <v>2759</v>
+        <v>10000</v>
       </c>
       <c r="C179">
-        <v>10</v>
+        <v>546.5</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -3983,16 +3986,16 @@
         <v>42628</v>
       </c>
       <c r="B180">
-        <v>2726</v>
+        <v>10000</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>548.5</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4003,16 +4006,16 @@
         <v>42629</v>
       </c>
       <c r="B181">
-        <v>2711</v>
+        <v>10000</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>534.5</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4023,16 +4026,16 @@
         <v>42632</v>
       </c>
       <c r="B182">
-        <v>2723</v>
+        <v>10000</v>
       </c>
       <c r="C182">
-        <v>10</v>
+        <v>542</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4043,16 +4046,16 @@
         <v>42633</v>
       </c>
       <c r="B183">
-        <v>2713</v>
+        <v>10000</v>
       </c>
       <c r="C183">
-        <v>10</v>
+        <v>544.5</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4063,16 +4066,16 @@
         <v>42634</v>
       </c>
       <c r="B184">
-        <v>2677</v>
+        <v>10000</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>533.5</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4083,16 +4086,16 @@
         <v>42635</v>
       </c>
       <c r="B185">
-        <v>2706</v>
+        <v>10000</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>537.5</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4103,16 +4106,16 @@
         <v>42636</v>
       </c>
       <c r="B186">
-        <v>2665</v>
+        <v>10000</v>
       </c>
       <c r="C186">
-        <v>10</v>
+        <v>524.5</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4123,16 +4126,16 @@
         <v>42639</v>
       </c>
       <c r="B187">
-        <v>2625</v>
+        <v>10000</v>
       </c>
       <c r="C187">
-        <v>10</v>
+        <v>519.5</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4143,16 +4146,16 @@
         <v>42640</v>
       </c>
       <c r="B188">
-        <v>2599</v>
+        <v>10000</v>
       </c>
       <c r="C188">
-        <v>10</v>
+        <v>520</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4163,16 +4166,16 @@
         <v>42641</v>
       </c>
       <c r="B189">
-        <v>2587</v>
+        <v>10000</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4183,16 +4186,16 @@
         <v>42642</v>
       </c>
       <c r="B190">
-        <v>2605</v>
+        <v>10000</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>524</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -4203,16 +4206,16 @@
         <v>42643</v>
       </c>
       <c r="B191">
-        <v>2600</v>
+        <v>10000</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>524</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4223,16 +4226,16 @@
         <v>42646</v>
       </c>
       <c r="B192">
-        <v>2603</v>
+        <v>10000</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>531.5</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4243,16 +4246,16 @@
         <v>42647</v>
       </c>
       <c r="B193">
-        <v>2636</v>
+        <v>10000</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>545.5</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -4263,16 +4266,16 @@
         <v>42648</v>
       </c>
       <c r="B194">
-        <v>2593</v>
+        <v>10000</v>
       </c>
       <c r="C194">
-        <v>10</v>
+        <v>538</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4283,16 +4286,16 @@
         <v>42649</v>
       </c>
       <c r="B195">
-        <v>2556</v>
+        <v>10000</v>
       </c>
       <c r="C195">
-        <v>10</v>
+        <v>537</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4303,16 +4306,16 @@
         <v>42650</v>
       </c>
       <c r="B196">
-        <v>2505</v>
+        <v>10000</v>
       </c>
       <c r="C196">
-        <v>10</v>
+        <v>540.5</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4323,16 +4326,16 @@
         <v>42653</v>
       </c>
       <c r="B197">
-        <v>2493</v>
+        <v>10000</v>
       </c>
       <c r="C197">
-        <v>10</v>
+        <v>547.5</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4343,16 +4346,16 @@
         <v>42654</v>
       </c>
       <c r="B198">
-        <v>2504</v>
+        <v>10000</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>544</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4363,16 +4366,16 @@
         <v>42655</v>
       </c>
       <c r="B199">
-        <v>2463</v>
+        <v>10000</v>
       </c>
       <c r="C199">
-        <v>10</v>
+        <v>541</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4383,16 +4386,16 @@
         <v>42656</v>
       </c>
       <c r="B200">
-        <v>2435</v>
+        <v>10000</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>536</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4403,16 +4406,16 @@
         <v>42657</v>
       </c>
       <c r="B201">
-        <v>2461</v>
+        <v>10000</v>
       </c>
       <c r="C201">
-        <v>10</v>
+        <v>543</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>988.5</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -4423,16 +4426,16 @@
         <v>42660</v>
       </c>
       <c r="B202">
-        <v>2450</v>
+        <v>10000</v>
       </c>
       <c r="C202">
-        <v>10</v>
+        <v>541</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4443,16 +4446,16 @@
         <v>42661</v>
       </c>
       <c r="B203">
-        <v>2483</v>
+        <v>10000</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>546</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>996.5</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4463,16 +4466,16 @@
         <v>42662</v>
       </c>
       <c r="B204">
-        <v>2490</v>
+        <v>10000</v>
       </c>
       <c r="C204">
-        <v>10</v>
+        <v>553.5</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4483,16 +4486,16 @@
         <v>42663</v>
       </c>
       <c r="B205">
-        <v>2528</v>
+        <v>10000</v>
       </c>
       <c r="C205">
-        <v>10</v>
+        <v>541.5</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4503,16 +4506,16 @@
         <v>42664</v>
       </c>
       <c r="B206">
-        <v>2522</v>
+        <v>10000</v>
       </c>
       <c r="C206">
-        <v>10</v>
+        <v>539.5</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4523,16 +4526,16 @@
         <v>42667</v>
       </c>
       <c r="B207">
-        <v>2475</v>
+        <v>10000</v>
       </c>
       <c r="C207">
-        <v>10</v>
+        <v>540</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4543,16 +4546,16 @@
         <v>42668</v>
       </c>
       <c r="B208">
-        <v>2440</v>
+        <v>10000</v>
       </c>
       <c r="C208">
-        <v>10</v>
+        <v>540.5</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4563,16 +4566,16 @@
         <v>42669</v>
       </c>
       <c r="B209">
-        <v>2459</v>
+        <v>10000</v>
       </c>
       <c r="C209">
-        <v>10</v>
+        <v>541</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4583,16 +4586,16 @@
         <v>42670</v>
       </c>
       <c r="B210">
-        <v>2473</v>
+        <v>10000</v>
       </c>
       <c r="C210">
-        <v>10</v>
+        <v>544</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>997.5</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4603,16 +4606,16 @@
         <v>42671</v>
       </c>
       <c r="B211">
-        <v>2507</v>
+        <v>10000</v>
       </c>
       <c r="C211">
-        <v>10</v>
+        <v>542.5</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -4623,16 +4626,16 @@
         <v>42674</v>
       </c>
       <c r="B212">
-        <v>2462</v>
+        <v>10000</v>
       </c>
       <c r="C212">
-        <v>10</v>
+        <v>542.5</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4643,16 +4646,16 @@
         <v>42675</v>
       </c>
       <c r="B213">
-        <v>2475</v>
+        <v>10000</v>
       </c>
       <c r="C213">
-        <v>10</v>
+        <v>538.5</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>984.5</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4663,16 +4666,16 @@
         <v>42676</v>
       </c>
       <c r="B214">
-        <v>2525</v>
+        <v>10000</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>975.5</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4683,16 +4686,16 @@
         <v>42677</v>
       </c>
       <c r="B215">
-        <v>2531</v>
+        <v>10000</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>534.5</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4703,16 +4706,16 @@
         <v>42678</v>
       </c>
       <c r="B216">
-        <v>2470</v>
+        <v>10000</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4723,16 +4726,16 @@
         <v>42681</v>
       </c>
       <c r="B217">
-        <v>2489</v>
+        <v>10000</v>
       </c>
       <c r="C217">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>968.5</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4743,16 +4746,16 @@
         <v>42682</v>
       </c>
       <c r="B218">
-        <v>2633</v>
+        <v>10000</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4763,16 +4766,16 @@
         <v>42683</v>
       </c>
       <c r="B219">
-        <v>2573</v>
+        <v>10000</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>962.5</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4783,16 +4786,16 @@
         <v>42684</v>
       </c>
       <c r="B220">
-        <v>2543</v>
+        <v>10000</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4803,16 +4806,16 @@
         <v>42685</v>
       </c>
       <c r="B221">
-        <v>2598</v>
+        <v>10000</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>594.3099999999999</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4823,16 +4826,16 @@
         <v>42688</v>
       </c>
       <c r="B222">
-        <v>2516</v>
+        <v>10000</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>593.5</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4843,16 +4846,16 @@
         <v>42689</v>
       </c>
       <c r="B223">
-        <v>2545</v>
+        <v>10000</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>987.5</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4863,16 +4866,16 @@
         <v>42690</v>
       </c>
       <c r="B224">
-        <v>2519</v>
+        <v>10000</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>599.5</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4883,16 +4886,16 @@
         <v>42691</v>
       </c>
       <c r="B225">
-        <v>2552</v>
+        <v>10000</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4903,16 +4906,16 @@
         <v>42692</v>
       </c>
       <c r="B226">
-        <v>2550</v>
+        <v>10000</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>593.5</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>979.5</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4923,16 +4926,16 @@
         <v>42695</v>
       </c>
       <c r="B227">
-        <v>2575</v>
+        <v>10000</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>597.5</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4943,16 +4946,16 @@
         <v>42696</v>
       </c>
       <c r="B228">
-        <v>2625</v>
+        <v>10000</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4963,16 +4966,16 @@
         <v>42697</v>
       </c>
       <c r="B229">
-        <v>2602</v>
+        <v>10000</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>603</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -4983,16 +4986,16 @@
         <v>42698</v>
       </c>
       <c r="B230">
-        <v>2595</v>
+        <v>10000</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>608.5</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>943.5</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -5003,16 +5006,16 @@
         <v>42699</v>
       </c>
       <c r="B231">
-        <v>2608</v>
+        <v>10000</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>604</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5023,16 +5026,16 @@
         <v>42702</v>
       </c>
       <c r="B232">
-        <v>2572</v>
+        <v>10000</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>603</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5043,16 +5046,16 @@
         <v>42703</v>
       </c>
       <c r="B233">
-        <v>2557</v>
+        <v>10000</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>601.5</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>947.5</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5063,16 +5066,16 @@
         <v>42704</v>
       </c>
       <c r="B234">
-        <v>2550</v>
+        <v>10000</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>600.5</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -5083,16 +5086,16 @@
         <v>42705</v>
       </c>
       <c r="B235">
-        <v>2541</v>
+        <v>10000</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>598</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>950.5</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5103,16 +5106,16 @@
         <v>42706</v>
       </c>
       <c r="B236">
-        <v>2576</v>
+        <v>10000</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>593.64</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5123,16 +5126,16 @@
         <v>42709</v>
       </c>
       <c r="B237">
-        <v>2580</v>
+        <v>10000</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>937.5</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5143,16 +5146,16 @@
         <v>42710</v>
       </c>
       <c r="B238">
-        <v>2575</v>
+        <v>10000</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>598.5</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>944.5</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5163,16 +5166,16 @@
         <v>42711</v>
       </c>
       <c r="B239">
-        <v>2616</v>
+        <v>10000</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>604.5</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5183,16 +5186,16 @@
         <v>42712</v>
       </c>
       <c r="B240">
-        <v>2663</v>
+        <v>10000</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>604</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -5203,16 +5206,16 @@
         <v>42713</v>
       </c>
       <c r="B241">
-        <v>2689</v>
+        <v>10000</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>600.5</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>927.5</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5223,16 +5226,16 @@
         <v>42716</v>
       </c>
       <c r="B242">
-        <v>2646</v>
+        <v>10000</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>586</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -5243,16 +5246,16 @@
         <v>42717</v>
       </c>
       <c r="B243">
-        <v>2713</v>
+        <v>10000</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>597.5</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5263,16 +5266,16 @@
         <v>42718</v>
       </c>
       <c r="B244">
-        <v>2711</v>
+        <v>10000</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>589</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>932.5</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5283,16 +5286,16 @@
         <v>42719</v>
       </c>
       <c r="B245">
-        <v>2669</v>
+        <v>10000</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5303,16 +5306,16 @@
         <v>42720</v>
       </c>
       <c r="B246">
-        <v>2686</v>
+        <v>10000</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>598</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>947.5</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5323,16 +5326,16 @@
         <v>42723</v>
       </c>
       <c r="B247">
-        <v>2704</v>
+        <v>10000</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>596.5</v>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>948.5</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -5343,16 +5346,16 @@
         <v>42724</v>
       </c>
       <c r="B248">
-        <v>2681</v>
+        <v>10000</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>598.5</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5363,16 +5366,16 @@
         <v>42725</v>
       </c>
       <c r="B249">
-        <v>2686</v>
+        <v>10000</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>596</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5383,16 +5386,16 @@
         <v>42726</v>
       </c>
       <c r="B250">
-        <v>2705</v>
+        <v>10000</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>593</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5403,16 +5406,16 @@
         <v>42727</v>
       </c>
       <c r="B251">
-        <v>2699</v>
+        <v>10000</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>593.5</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -5423,16 +5426,16 @@
         <v>42732</v>
       </c>
       <c r="B252">
-        <v>2719</v>
+        <v>10000</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>599</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>942.5</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5443,16 +5446,16 @@
         <v>42733</v>
       </c>
       <c r="B253">
-        <v>2730</v>
+        <v>10000</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>595</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>945.5</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5463,16 +5466,16 @@
         <v>42734</v>
       </c>
       <c r="B254">
-        <v>2745</v>
+        <v>10000</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>591.5</v>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5483,16 +5486,16 @@
         <v>42738</v>
       </c>
       <c r="B255">
-        <v>2711</v>
+        <v>10000</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5503,16 +5506,16 @@
         <v>42739</v>
       </c>
       <c r="B256">
-        <v>2610</v>
+        <v>10000</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>585</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5523,16 +5526,16 @@
         <v>42740</v>
       </c>
       <c r="B257">
-        <v>2685</v>
+        <v>10000</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>584.59</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>955.5</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5543,16 +5546,16 @@
         <v>42741</v>
       </c>
       <c r="B258">
-        <v>2655</v>
+        <v>10000</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>939.5</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5563,16 +5566,16 @@
         <v>42744</v>
       </c>
       <c r="B259">
-        <v>2668</v>
+        <v>10000</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>597.5</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>926.5</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -5583,16 +5586,16 @@
         <v>42745</v>
       </c>
       <c r="B260">
-        <v>2664</v>
+        <v>10000</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>950.4</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5603,16 +5606,16 @@
         <v>42746</v>
       </c>
       <c r="B261">
-        <v>2698</v>
+        <v>10000</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5623,16 +5626,16 @@
         <v>42747</v>
       </c>
       <c r="B262">
-        <v>2576</v>
+        <v>10000</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>617.5</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>946.5</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5643,16 +5646,16 @@
         <v>42748</v>
       </c>
       <c r="B263">
-        <v>2580</v>
+        <v>10000</v>
       </c>
       <c r="C263">
-        <v>10</v>
+        <v>611.5</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5663,16 +5666,16 @@
         <v>42751</v>
       </c>
       <c r="B264">
-        <v>2579</v>
+        <v>10000</v>
       </c>
       <c r="C264">
-        <v>10</v>
+        <v>611.5</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5683,16 +5686,16 @@
         <v>42752</v>
       </c>
       <c r="B265">
-        <v>2574</v>
+        <v>10000</v>
       </c>
       <c r="C265">
-        <v>10</v>
+        <v>605</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>954.5</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5703,16 +5706,16 @@
         <v>42753</v>
       </c>
       <c r="B266">
-        <v>2580</v>
+        <v>10000</v>
       </c>
       <c r="C266">
-        <v>10</v>
+        <v>605</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5723,16 +5726,16 @@
         <v>42754</v>
       </c>
       <c r="B267">
-        <v>2585</v>
+        <v>10000</v>
       </c>
       <c r="C267">
-        <v>10</v>
+        <v>602</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5743,16 +5746,16 @@
         <v>42755</v>
       </c>
       <c r="B268">
-        <v>2522</v>
+        <v>10000</v>
       </c>
       <c r="C268">
-        <v>10</v>
+        <v>600.5</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>935.5</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5763,16 +5766,16 @@
         <v>42758</v>
       </c>
       <c r="B269">
-        <v>2523</v>
+        <v>10000</v>
       </c>
       <c r="C269">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>932.5</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5783,16 +5786,16 @@
         <v>42759</v>
       </c>
       <c r="B270">
-        <v>2485</v>
+        <v>10000</v>
       </c>
       <c r="C270">
-        <v>10</v>
+        <v>598</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>915.38</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5803,16 +5806,16 @@
         <v>42760</v>
       </c>
       <c r="B271">
-        <v>2463</v>
+        <v>10000</v>
       </c>
       <c r="C271">
-        <v>10</v>
+        <v>600.5</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5823,16 +5826,16 @@
         <v>42761</v>
       </c>
       <c r="B272">
-        <v>2392</v>
+        <v>10000</v>
       </c>
       <c r="C272">
-        <v>10</v>
+        <v>596</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>901.5</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5843,16 +5846,16 @@
         <v>42762</v>
       </c>
       <c r="B273">
-        <v>2429</v>
+        <v>10000</v>
       </c>
       <c r="C273">
-        <v>10</v>
+        <v>592.5</v>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5863,16 +5866,16 @@
         <v>42765</v>
       </c>
       <c r="B274">
-        <v>2431</v>
+        <v>10000</v>
       </c>
       <c r="C274">
-        <v>10</v>
+        <v>585</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5883,16 +5886,16 @@
         <v>42766</v>
       </c>
       <c r="B275">
-        <v>2386</v>
+        <v>10000</v>
       </c>
       <c r="C275">
-        <v>10</v>
+        <v>582</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5903,16 +5906,16 @@
         <v>42767</v>
       </c>
       <c r="B276">
-        <v>2361</v>
+        <v>10000</v>
       </c>
       <c r="C276">
-        <v>10</v>
+        <v>582.5</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5923,16 +5926,16 @@
         <v>42768</v>
       </c>
       <c r="B277">
-        <v>2376</v>
+        <v>10000</v>
       </c>
       <c r="C277">
-        <v>10</v>
+        <v>583.5</v>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>890.5</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5943,16 +5946,16 @@
         <v>42769</v>
       </c>
       <c r="B278">
-        <v>2407</v>
+        <v>10000</v>
       </c>
       <c r="C278">
-        <v>10</v>
+        <v>583.5</v>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -5963,16 +5966,16 @@
         <v>42772</v>
       </c>
       <c r="B279">
-        <v>2399</v>
+        <v>10000</v>
       </c>
       <c r="C279">
-        <v>10</v>
+        <v>588</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -5983,16 +5986,16 @@
         <v>42773</v>
       </c>
       <c r="B280">
-        <v>2448</v>
+        <v>10000</v>
       </c>
       <c r="C280">
-        <v>10</v>
+        <v>598</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>888.5</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6003,16 +6006,16 @@
         <v>42774</v>
       </c>
       <c r="B281">
-        <v>2499.45</v>
+        <v>10000</v>
       </c>
       <c r="C281">
-        <v>10</v>
+        <v>599.5</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6023,16 +6026,16 @@
         <v>42775</v>
       </c>
       <c r="B282">
-        <v>2490</v>
+        <v>10000</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -6043,16 +6046,16 @@
         <v>42776</v>
       </c>
       <c r="B283">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="D283">
         <v>0</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>882.95</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6063,16 +6066,16 @@
         <v>42779</v>
       </c>
       <c r="B284">
-        <v>2540</v>
+        <v>10000</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -6083,16 +6086,16 @@
         <v>42780</v>
       </c>
       <c r="B285">
-        <v>2524</v>
+        <v>10000</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>605.5</v>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6103,16 +6106,16 @@
         <v>42781</v>
       </c>
       <c r="B286">
-        <v>2527</v>
+        <v>10000</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>608.5</v>
       </c>
       <c r="D286">
         <v>0</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>902.5</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -6123,16 +6126,16 @@
         <v>42782</v>
       </c>
       <c r="B287">
-        <v>2568</v>
+        <v>10000</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>603.5</v>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>898.5</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6143,16 +6146,16 @@
         <v>42783</v>
       </c>
       <c r="B288">
-        <v>2609</v>
+        <v>10000</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>606.5</v>
       </c>
       <c r="D288">
         <v>0</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>895.5</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6163,16 +6166,16 @@
         <v>42786</v>
       </c>
       <c r="B289">
-        <v>2567</v>
+        <v>10000</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>905.5</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6183,16 +6186,16 @@
         <v>42787</v>
       </c>
       <c r="B290">
-        <v>2584</v>
+        <v>10000</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>611.28</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>899.5</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6203,16 +6206,16 @@
         <v>42788</v>
       </c>
       <c r="B291">
-        <v>2618</v>
+        <v>10000</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>605.5</v>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6223,16 +6226,16 @@
         <v>42789</v>
       </c>
       <c r="B292">
-        <v>2610</v>
+        <v>10000</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>609.5</v>
       </c>
       <c r="D292">
         <v>0</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -6243,16 +6246,16 @@
         <v>42790</v>
       </c>
       <c r="B293">
-        <v>2611</v>
+        <v>10000</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>615</v>
       </c>
       <c r="D293">
         <v>0</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -6263,16 +6266,16 @@
         <v>42793</v>
       </c>
       <c r="B294">
-        <v>2587</v>
+        <v>10000</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>618</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6283,16 +6286,16 @@
         <v>42794</v>
       </c>
       <c r="B295">
-        <v>2619</v>
+        <v>10000</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>630</v>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6303,16 +6306,16 @@
         <v>42795</v>
       </c>
       <c r="B296">
-        <v>2618</v>
+        <v>10000</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>638.5</v>
       </c>
       <c r="D296">
         <v>0</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>936.5</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6323,16 +6326,16 @@
         <v>42796</v>
       </c>
       <c r="B297">
-        <v>2587</v>
+        <v>10000</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>650.5</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6343,16 +6346,16 @@
         <v>42797</v>
       </c>
       <c r="B298">
-        <v>2596</v>
+        <v>10000</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>643.5</v>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>921.5</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6363,16 +6366,16 @@
         <v>42800</v>
       </c>
       <c r="B299">
-        <v>2589</v>
+        <v>10000</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>643.5</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>912.5</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -6383,16 +6386,16 @@
         <v>42801</v>
       </c>
       <c r="B300">
-        <v>2600</v>
+        <v>10000</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>644</v>
       </c>
       <c r="D300">
         <v>0</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>905.5</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6403,16 +6406,16 @@
         <v>42802</v>
       </c>
       <c r="B301">
-        <v>2610</v>
+        <v>10000</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>649.5</v>
       </c>
       <c r="D301">
         <v>0</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>896.5</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6423,19 +6426,19 @@
         <v>42803</v>
       </c>
       <c r="B302">
-        <v>2626</v>
+        <v>10000</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="D302">
         <v>0</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6443,16 +6446,16 @@
         <v>42804</v>
       </c>
       <c r="B303">
-        <v>2631</v>
+        <v>10000</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>638.85</v>
       </c>
       <c r="D303">
         <v>0</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>898.8200000000001</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -6463,16 +6466,16 @@
         <v>42807</v>
       </c>
       <c r="B304">
-        <v>2633</v>
+        <v>10000</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>635</v>
       </c>
       <c r="D304">
         <v>0</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>899.5</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6483,16 +6486,16 @@
         <v>42808</v>
       </c>
       <c r="B305">
-        <v>2650</v>
+        <v>10000</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>638</v>
       </c>
       <c r="D305">
         <v>0</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6503,16 +6506,16 @@
         <v>42809</v>
       </c>
       <c r="B306">
-        <v>2634</v>
+        <v>10000</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>641</v>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>914.5</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6523,16 +6526,16 @@
         <v>42810</v>
       </c>
       <c r="B307">
-        <v>2630</v>
+        <v>10000</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="D307">
         <v>0</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6543,16 +6546,16 @@
         <v>42811</v>
       </c>
       <c r="B308">
-        <v>2616</v>
+        <v>10000</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>646.5</v>
       </c>
       <c r="D308">
         <v>0</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>924.5</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6563,16 +6566,16 @@
         <v>42814</v>
       </c>
       <c r="B309">
-        <v>2659</v>
+        <v>10000</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>649</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>923.5</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6583,16 +6586,16 @@
         <v>42815</v>
       </c>
       <c r="B310">
-        <v>2661</v>
+        <v>10000</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>644.5</v>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6603,16 +6606,16 @@
         <v>42816</v>
       </c>
       <c r="B311">
-        <v>2605</v>
+        <v>10000</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>644.5</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6623,16 +6626,16 @@
         <v>42817</v>
       </c>
       <c r="B312">
-        <v>2642</v>
+        <v>10000</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>652.5</v>
       </c>
       <c r="D312">
         <v>0</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -6643,16 +6646,16 @@
         <v>42818</v>
       </c>
       <c r="B313">
-        <v>2630</v>
+        <v>10000</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>654.67</v>
       </c>
       <c r="D313">
         <v>0</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>916.5</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6663,19 +6666,19 @@
         <v>42821</v>
       </c>
       <c r="B314">
-        <v>2650</v>
+        <v>10000</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>641.36</v>
       </c>
       <c r="D314">
         <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6683,16 +6686,16 @@
         <v>42822</v>
       </c>
       <c r="B315">
-        <v>2612</v>
+        <v>10000</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>650.5</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>874.5</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6703,16 +6706,16 @@
         <v>42823</v>
       </c>
       <c r="B316">
-        <v>2649</v>
+        <v>10000</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>647.5</v>
       </c>
       <c r="D316">
         <v>0</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6723,16 +6726,16 @@
         <v>42824</v>
       </c>
       <c r="B317">
-        <v>2595</v>
+        <v>10000</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="D317">
         <v>0</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6743,16 +6746,16 @@
         <v>42825</v>
       </c>
       <c r="B318">
-        <v>2606</v>
+        <v>10000</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>642.5</v>
       </c>
       <c r="D318">
         <v>0</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -6763,16 +6766,16 @@
         <v>42828</v>
       </c>
       <c r="B319">
-        <v>2601</v>
+        <v>10000</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="D319">
         <v>0</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>885.5</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6783,16 +6786,16 @@
         <v>42829</v>
       </c>
       <c r="B320">
-        <v>2539</v>
+        <v>10000</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>640.5</v>
       </c>
       <c r="D320">
         <v>0</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6803,16 +6806,16 @@
         <v>42830</v>
       </c>
       <c r="B321">
-        <v>2533</v>
+        <v>10000</v>
       </c>
       <c r="C321">
-        <v>10</v>
+        <v>635.5</v>
       </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>881.5</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6823,16 +6826,16 @@
         <v>42831</v>
       </c>
       <c r="B322">
-        <v>2502</v>
+        <v>10000</v>
       </c>
       <c r="C322">
-        <v>10</v>
+        <v>634</v>
       </c>
       <c r="D322">
         <v>0</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -6843,16 +6846,16 @@
         <v>42832</v>
       </c>
       <c r="B323">
-        <v>2484</v>
+        <v>10000</v>
       </c>
       <c r="C323">
-        <v>10</v>
+        <v>649</v>
       </c>
       <c r="D323">
         <v>0</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>882.5</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6863,16 +6866,16 @@
         <v>42835</v>
       </c>
       <c r="B324">
-        <v>2578</v>
+        <v>10000</v>
       </c>
       <c r="C324">
-        <v>10</v>
+        <v>642</v>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>886.34</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6883,16 +6886,16 @@
         <v>42836</v>
       </c>
       <c r="B325">
-        <v>2589</v>
+        <v>10000</v>
       </c>
       <c r="C325">
-        <v>10</v>
+        <v>641.5</v>
       </c>
       <c r="D325">
         <v>0</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6903,16 +6906,16 @@
         <v>42837</v>
       </c>
       <c r="B326">
-        <v>2615</v>
+        <v>10000</v>
       </c>
       <c r="C326">
-        <v>10</v>
+        <v>646.5</v>
       </c>
       <c r="D326">
         <v>0</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>883.5</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6923,16 +6926,16 @@
         <v>42838</v>
       </c>
       <c r="B327">
-        <v>2709</v>
+        <v>10000</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="D327">
         <v>0</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>885.5</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -6943,16 +6946,16 @@
         <v>42843</v>
       </c>
       <c r="B328">
-        <v>2718</v>
+        <v>10000</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>636.5</v>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -6963,16 +6966,16 @@
         <v>42844</v>
       </c>
       <c r="B329">
-        <v>2753</v>
+        <v>10000</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>630.5</v>
       </c>
       <c r="D329">
         <v>0</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>877.5</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -6983,16 +6986,16 @@
         <v>42845</v>
       </c>
       <c r="B330">
-        <v>2760</v>
+        <v>10000</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>619.5</v>
       </c>
       <c r="D330">
         <v>0</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7003,16 +7006,16 @@
         <v>42846</v>
       </c>
       <c r="B331">
-        <v>2814</v>
+        <v>10000</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>620.5</v>
       </c>
       <c r="D331">
         <v>0</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -7023,16 +7026,16 @@
         <v>42849</v>
       </c>
       <c r="B332">
-        <v>2879</v>
+        <v>10000</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>628.5</v>
       </c>
       <c r="D332">
         <v>0</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -7043,16 +7046,16 @@
         <v>42850</v>
       </c>
       <c r="B333">
-        <v>2815</v>
+        <v>10000</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>630.5</v>
       </c>
       <c r="D333">
         <v>0</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7063,16 +7066,16 @@
         <v>42851</v>
       </c>
       <c r="B334">
-        <v>2825</v>
+        <v>10000</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>637.5</v>
       </c>
       <c r="D334">
         <v>0</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7083,16 +7086,16 @@
         <v>42852</v>
       </c>
       <c r="B335">
-        <v>2832</v>
+        <v>10000</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>632.5</v>
       </c>
       <c r="D335">
         <v>0</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>910.5</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7103,16 +7106,16 @@
         <v>42853</v>
       </c>
       <c r="B336">
-        <v>2810</v>
+        <v>10000</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>627</v>
       </c>
       <c r="D336">
         <v>0</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -7123,16 +7126,16 @@
         <v>42857</v>
       </c>
       <c r="B337">
-        <v>2815</v>
+        <v>10000</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>638.5</v>
       </c>
       <c r="D337">
         <v>0</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -7143,16 +7146,16 @@
         <v>42858</v>
       </c>
       <c r="B338">
-        <v>2829</v>
+        <v>10000</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>636</v>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>900.5</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7163,16 +7166,16 @@
         <v>42859</v>
       </c>
       <c r="B339">
-        <v>2795</v>
+        <v>10000</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>635.5</v>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7183,16 +7186,16 @@
         <v>42860</v>
       </c>
       <c r="B340">
-        <v>2772</v>
+        <v>10000</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>647.5</v>
       </c>
       <c r="D340">
         <v>0</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>915.5</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -7203,16 +7206,16 @@
         <v>42863</v>
       </c>
       <c r="B341">
-        <v>2800</v>
+        <v>10000</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>639.5</v>
       </c>
       <c r="D341">
         <v>0</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>906.5</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7223,16 +7226,16 @@
         <v>42864</v>
       </c>
       <c r="B342">
-        <v>2810</v>
+        <v>10000</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="D342">
         <v>0</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>902.5</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7243,16 +7246,16 @@
         <v>42865</v>
       </c>
       <c r="B343">
-        <v>2877</v>
+        <v>10000</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>640.5</v>
       </c>
       <c r="D343">
         <v>0</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7263,16 +7266,16 @@
         <v>42866</v>
       </c>
       <c r="B344">
-        <v>2873</v>
+        <v>10000</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>641</v>
       </c>
       <c r="D344">
         <v>0</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>893.5</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7283,16 +7286,16 @@
         <v>42867</v>
       </c>
       <c r="B345">
-        <v>2873</v>
+        <v>10000</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D345">
         <v>0</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>899.5</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7303,16 +7306,16 @@
         <v>42870</v>
       </c>
       <c r="B346">
-        <v>2862</v>
+        <v>10000</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>635.5</v>
       </c>
       <c r="D346">
         <v>0</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -7323,16 +7326,16 @@
         <v>42871</v>
       </c>
       <c r="B347">
-        <v>2873</v>
+        <v>10000</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>643</v>
       </c>
       <c r="D347">
         <v>0</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>914.5</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7343,16 +7346,16 @@
         <v>42872</v>
       </c>
       <c r="B348">
-        <v>2882</v>
+        <v>10000</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>638.5</v>
       </c>
       <c r="D348">
         <v>0</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>920.45</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7363,16 +7366,16 @@
         <v>42873</v>
       </c>
       <c r="B349">
-        <v>2861</v>
+        <v>10000</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>635.5</v>
       </c>
       <c r="D349">
         <v>0</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>922.5</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -7383,16 +7386,16 @@
         <v>42874</v>
       </c>
       <c r="B350">
-        <v>2884</v>
+        <v>10000</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D350">
         <v>0</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>937.5</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7403,16 +7406,16 @@
         <v>42877</v>
       </c>
       <c r="B351">
-        <v>2907</v>
+        <v>10000</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>641.5</v>
       </c>
       <c r="D351">
         <v>0</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>941.5</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7423,16 +7426,16 @@
         <v>42878</v>
       </c>
       <c r="B352">
-        <v>2954</v>
+        <v>10000</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>641.5</v>
       </c>
       <c r="D352">
         <v>0</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>969.5</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7443,16 +7446,16 @@
         <v>42879</v>
       </c>
       <c r="B353">
-        <v>2965</v>
+        <v>10000</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="D353">
         <v>0</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7463,16 +7466,16 @@
         <v>42880</v>
       </c>
       <c r="B354">
-        <v>2969</v>
+        <v>10000</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>950.5</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -7483,16 +7486,16 @@
         <v>42881</v>
       </c>
       <c r="B355">
-        <v>2950</v>
+        <v>10000</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>665.5</v>
       </c>
       <c r="D355">
         <v>0</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>941.5</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7503,16 +7506,16 @@
         <v>42885</v>
       </c>
       <c r="B356">
-        <v>2984</v>
+        <v>10000</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="D356">
         <v>0</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7523,16 +7526,16 @@
         <v>42886</v>
       </c>
       <c r="B357">
-        <v>2996</v>
+        <v>10000</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>665.5</v>
       </c>
       <c r="D357">
         <v>0</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -7543,16 +7546,16 @@
         <v>42887</v>
       </c>
       <c r="B358">
-        <v>3010</v>
+        <v>10000</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>673</v>
       </c>
       <c r="D358">
         <v>0</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>938.5</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7563,16 +7566,16 @@
         <v>42888</v>
       </c>
       <c r="B359">
-        <v>2997</v>
+        <v>10000</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>670</v>
       </c>
       <c r="D359">
         <v>0</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7583,16 +7586,16 @@
         <v>42891</v>
       </c>
       <c r="B360">
-        <v>2988</v>
+        <v>10000</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>671.5</v>
       </c>
       <c r="D360">
         <v>0</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7603,16 +7606,16 @@
         <v>42892</v>
       </c>
       <c r="B361">
-        <v>3020</v>
+        <v>10000</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>673.5</v>
       </c>
       <c r="D361">
         <v>0</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>924.5</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -7623,16 +7626,16 @@
         <v>42893</v>
       </c>
       <c r="B362">
-        <v>2970</v>
+        <v>10000</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>667.5</v>
       </c>
       <c r="D362">
         <v>0</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7643,16 +7646,16 @@
         <v>42894</v>
       </c>
       <c r="B363">
-        <v>2971</v>
+        <v>10000</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>661</v>
       </c>
       <c r="D363">
         <v>0</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7663,16 +7666,16 @@
         <v>42895</v>
       </c>
       <c r="B364">
-        <v>2941</v>
+        <v>10000</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="D364">
         <v>0</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>882.5</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7683,16 +7686,16 @@
         <v>42898</v>
       </c>
       <c r="B365">
-        <v>2939</v>
+        <v>10000</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>667</v>
       </c>
       <c r="D365">
         <v>0</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>890.5</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7703,16 +7706,16 @@
         <v>42899</v>
       </c>
       <c r="B366">
-        <v>2969</v>
+        <v>10000</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>659.5</v>
       </c>
       <c r="D366">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -7723,16 +7726,16 @@
         <v>42900</v>
       </c>
       <c r="B367">
-        <v>3022</v>
+        <v>10000</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>659.5</v>
       </c>
       <c r="D367">
         <v>0</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>905.5</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -7743,16 +7746,16 @@
         <v>42901</v>
       </c>
       <c r="B368">
-        <v>2961</v>
+        <v>10000</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>657</v>
       </c>
       <c r="D368">
         <v>0</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7763,16 +7766,16 @@
         <v>42902</v>
       </c>
       <c r="B369">
-        <v>2961</v>
+        <v>10000</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>673</v>
       </c>
       <c r="D369">
         <v>0</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7783,16 +7786,16 @@
         <v>42905</v>
       </c>
       <c r="B370">
-        <v>2985</v>
+        <v>10000</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>676.5</v>
       </c>
       <c r="D370">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7803,16 +7806,16 @@
         <v>42906</v>
       </c>
       <c r="B371">
-        <v>2984</v>
+        <v>10000</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>675.5</v>
       </c>
       <c r="D371">
         <v>0</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7823,16 +7826,16 @@
         <v>42907</v>
       </c>
       <c r="B372">
-        <v>2954</v>
+        <v>10000</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>676.5</v>
       </c>
       <c r="D372">
         <v>0</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>902.5</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -7843,16 +7846,16 @@
         <v>42908</v>
       </c>
       <c r="B373">
-        <v>2955</v>
+        <v>10000</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>664.5</v>
       </c>
       <c r="D373">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>896.5</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7863,16 +7866,16 @@
         <v>42909</v>
       </c>
       <c r="B374">
-        <v>2932</v>
+        <v>10000</v>
       </c>
       <c r="C374">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D374">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>0</v>
+        <v>903.5</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -7883,16 +7886,16 @@
         <v>42912</v>
       </c>
       <c r="B375">
-        <v>2962</v>
+        <v>10000</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>651.5</v>
       </c>
       <c r="D375">
         <v>0</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>909.5</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -7903,16 +7906,16 @@
         <v>42913</v>
       </c>
       <c r="B376">
-        <v>2958</v>
+        <v>10000</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>643.5</v>
       </c>
       <c r="D376">
         <v>0</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -7923,16 +7926,16 @@
         <v>42914</v>
       </c>
       <c r="B377">
-        <v>2973</v>
+        <v>10000</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>640.5</v>
       </c>
       <c r="D377">
         <v>0</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7943,16 +7946,16 @@
         <v>42915</v>
       </c>
       <c r="B378">
-        <v>2920</v>
+        <v>10000</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>635.5</v>
       </c>
       <c r="D378">
         <v>0</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -7963,16 +7966,16 @@
         <v>42916</v>
       </c>
       <c r="B379">
-        <v>2936</v>
+        <v>10000</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>633.5</v>
       </c>
       <c r="D379">
         <v>0</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>880.5</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -7983,16 +7986,16 @@
         <v>42919</v>
       </c>
       <c r="B380">
-        <v>2922</v>
+        <v>10000</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>631.5</v>
       </c>
       <c r="D380">
         <v>0</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -8003,16 +8006,16 @@
         <v>42920</v>
       </c>
       <c r="B381">
-        <v>2904</v>
+        <v>10000</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>623.5</v>
       </c>
       <c r="D381">
         <v>0</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8023,16 +8026,16 @@
         <v>42921</v>
       </c>
       <c r="B382">
-        <v>2922</v>
+        <v>10000</v>
       </c>
       <c r="C382">
-        <v>0</v>
+        <v>620.5</v>
       </c>
       <c r="D382">
         <v>0</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>877.5</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8043,16 +8046,16 @@
         <v>42922</v>
       </c>
       <c r="B383">
-        <v>2997</v>
+        <v>10000</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D383">
         <v>0</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -8063,16 +8066,16 @@
         <v>42923</v>
       </c>
       <c r="B384">
-        <v>2970</v>
+        <v>10000</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>617.5</v>
       </c>
       <c r="D384">
         <v>0</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8083,16 +8086,16 @@
         <v>42926</v>
       </c>
       <c r="B385">
-        <v>2966</v>
+        <v>10000</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>630</v>
       </c>
       <c r="D385">
         <v>0</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>864.5</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8103,16 +8106,16 @@
         <v>42927</v>
       </c>
       <c r="B386">
-        <v>2845</v>
+        <v>10000</v>
       </c>
       <c r="C386">
-        <v>11</v>
+        <v>626.5</v>
       </c>
       <c r="D386">
-        <v>35.1493848857645</v>
+        <v>0</v>
       </c>
       <c r="E386">
-        <v>2845</v>
+        <v>849.5</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8123,19 +8126,19 @@
         <v>42928</v>
       </c>
       <c r="B387">
-        <v>2882</v>
+        <v>10000</v>
       </c>
       <c r="C387">
-        <v>10</v>
+        <v>619</v>
       </c>
       <c r="D387">
         <v>0</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>869.5</v>
       </c>
       <c r="F387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8143,16 +8146,16 @@
         <v>42929</v>
       </c>
       <c r="B388">
-        <v>2915</v>
+        <v>10000</v>
       </c>
       <c r="C388">
-        <v>10</v>
+        <v>618</v>
       </c>
       <c r="D388">
         <v>0</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8163,16 +8166,16 @@
         <v>42930</v>
       </c>
       <c r="B389">
-        <v>2855</v>
+        <v>10000</v>
       </c>
       <c r="C389">
-        <v>10</v>
+        <v>612</v>
       </c>
       <c r="D389">
         <v>0</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>852.5</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8183,16 +8186,16 @@
         <v>42933</v>
       </c>
       <c r="B390">
-        <v>2849</v>
+        <v>10000</v>
       </c>
       <c r="C390">
-        <v>10</v>
+        <v>613.5</v>
       </c>
       <c r="D390">
         <v>0</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8203,16 +8206,16 @@
         <v>42934</v>
       </c>
       <c r="B391">
-        <v>2913</v>
+        <v>10000</v>
       </c>
       <c r="C391">
-        <v>10</v>
+        <v>613</v>
       </c>
       <c r="D391">
         <v>0</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>847.5</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8223,16 +8226,16 @@
         <v>42935</v>
       </c>
       <c r="B392">
-        <v>2944</v>
+        <v>10000</v>
       </c>
       <c r="C392">
-        <v>10</v>
+        <v>611</v>
       </c>
       <c r="D392">
         <v>0</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8243,16 +8246,16 @@
         <v>42936</v>
       </c>
       <c r="B393">
-        <v>2959</v>
+        <v>10000</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="D393">
         <v>0</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8263,16 +8266,16 @@
         <v>42937</v>
       </c>
       <c r="B394">
-        <v>2943</v>
+        <v>10000</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>606.5</v>
       </c>
       <c r="D394">
         <v>0</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -8283,16 +8286,16 @@
         <v>42940</v>
       </c>
       <c r="B395">
-        <v>2882</v>
+        <v>10000</v>
       </c>
       <c r="C395">
-        <v>10</v>
+        <v>601.5</v>
       </c>
       <c r="D395">
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>852.5</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -8303,16 +8306,16 @@
         <v>42941</v>
       </c>
       <c r="B396">
-        <v>2921</v>
+        <v>10000</v>
       </c>
       <c r="C396">
-        <v>10</v>
+        <v>604</v>
       </c>
       <c r="D396">
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>846.5</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -8323,16 +8326,16 @@
         <v>42942</v>
       </c>
       <c r="B397">
-        <v>2942</v>
+        <v>10000</v>
       </c>
       <c r="C397">
-        <v>0</v>
+        <v>602.5</v>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8343,16 +8346,16 @@
         <v>42943</v>
       </c>
       <c r="B398">
-        <v>2983</v>
+        <v>10000</v>
       </c>
       <c r="C398">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="D398">
         <v>0</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8363,16 +8366,16 @@
         <v>42944</v>
       </c>
       <c r="B399">
-        <v>2962</v>
+        <v>10000</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>605</v>
       </c>
       <c r="D399">
         <v>0</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>844.5</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -8383,16 +8386,16 @@
         <v>42947</v>
       </c>
       <c r="B400">
-        <v>2964</v>
+        <v>10000</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>601.5</v>
       </c>
       <c r="D400">
         <v>0</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>844.5</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -8403,16 +8406,16 @@
         <v>42948</v>
       </c>
       <c r="B401">
-        <v>2978</v>
+        <v>10000</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>607</v>
       </c>
       <c r="D401">
         <v>0</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -8423,16 +8426,16 @@
         <v>42949</v>
       </c>
       <c r="B402">
-        <v>3011</v>
+        <v>10000</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>590.5</v>
       </c>
       <c r="D402">
         <v>0</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>860.5</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8443,16 +8446,16 @@
         <v>42950</v>
       </c>
       <c r="B403">
-        <v>3072</v>
+        <v>10000</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>589.5</v>
       </c>
       <c r="D403">
         <v>0</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8463,16 +8466,16 @@
         <v>42951</v>
       </c>
       <c r="B404">
-        <v>3109</v>
+        <v>10000</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>586.5</v>
       </c>
       <c r="D404">
         <v>0</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8483,16 +8486,16 @@
         <v>42954</v>
       </c>
       <c r="B405">
-        <v>3115</v>
+        <v>10000</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>582.5</v>
       </c>
       <c r="D405">
         <v>0</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -8503,16 +8506,16 @@
         <v>42955</v>
       </c>
       <c r="B406">
-        <v>3154</v>
+        <v>10000</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>575.5</v>
       </c>
       <c r="D406">
         <v>0</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -8523,16 +8526,16 @@
         <v>42956</v>
       </c>
       <c r="B407">
-        <v>3155</v>
+        <v>10000</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>582.5</v>
       </c>
       <c r="D407">
         <v>0</v>
       </c>
       <c r="E407">
-        <v>0</v>
+        <v>851.5</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -8543,16 +8546,16 @@
         <v>42957</v>
       </c>
       <c r="B408">
-        <v>3176</v>
+        <v>10000</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>583.5</v>
       </c>
       <c r="D408">
         <v>0</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8563,16 +8566,16 @@
         <v>42958</v>
       </c>
       <c r="B409">
-        <v>3155</v>
+        <v>10000</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>582</v>
       </c>
       <c r="D409">
         <v>0</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -8583,16 +8586,16 @@
         <v>42961</v>
       </c>
       <c r="B410">
-        <v>3155</v>
+        <v>10000</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>580.5</v>
       </c>
       <c r="D410">
         <v>0</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>848.5</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8603,16 +8606,16 @@
         <v>42962</v>
       </c>
       <c r="B411">
-        <v>3153</v>
+        <v>10000</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>594</v>
       </c>
       <c r="D411">
         <v>0</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>850.5</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -8623,16 +8626,16 @@
         <v>42963</v>
       </c>
       <c r="B412">
-        <v>3175</v>
+        <v>10000</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>597.5</v>
       </c>
       <c r="D412">
         <v>0</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>847.5</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -8643,16 +8646,16 @@
         <v>42964</v>
       </c>
       <c r="B413">
-        <v>3180</v>
+        <v>10000</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>591.5</v>
       </c>
       <c r="D413">
         <v>0</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -8663,16 +8666,16 @@
         <v>42965</v>
       </c>
       <c r="B414">
-        <v>3140</v>
+        <v>10000</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>583.5</v>
       </c>
       <c r="D414">
         <v>0</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -8683,16 +8686,16 @@
         <v>42968</v>
       </c>
       <c r="B415">
-        <v>3144</v>
+        <v>10000</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>586</v>
       </c>
       <c r="D415">
         <v>0</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -8703,16 +8706,16 @@
         <v>42969</v>
       </c>
       <c r="B416">
-        <v>3180</v>
+        <v>10000</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>595.5</v>
       </c>
       <c r="D416">
         <v>0</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>813.5</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -8723,18 +8726,38 @@
         <v>42970</v>
       </c>
       <c r="B417">
-        <v>3189.71</v>
+        <v>10000</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>592</v>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="2">
+        <v>42971</v>
+      </c>
+      <c r="B418">
+        <v>10000</v>
+      </c>
+      <c r="C418">
+        <v>603.92</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>810.51</v>
+      </c>
+      <c r="F418">
         <v>0</v>
       </c>
     </row>
